--- a/product_data/processing_metadata/C2/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C2/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE.v0/processing_metadata/C2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{070497C2-19CC-4BAD-BA79-40727EC20C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{55110132-211A-4A62-B1F3-99F07DDCAA07}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{070497C2-19CC-4BAD-BA79-40727EC20C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1839111F-5542-418C-A77B-80763AD10A64}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="670" windowWidth="19040" windowHeight="10130" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="389">
   <si>
     <t>file_type</t>
   </si>
@@ -1114,6 +1114,93 @@
   </si>
   <si>
     <t>cast</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>09AR20010101_pig</t>
+  </si>
+  <si>
+    <t>09AR20011029_pig</t>
+  </si>
+  <si>
+    <t>09AR20030103_pig</t>
+  </si>
+  <si>
+    <t>09AR20041001_pig</t>
+  </si>
+  <si>
+    <t>09AR20060102_pig</t>
+  </si>
+  <si>
+    <t>SOCCOM_pig</t>
+  </si>
+  <si>
+    <t>09AR20080323_pig</t>
+  </si>
+  <si>
+    <t>09SS19951115_pig</t>
+  </si>
+  <si>
+    <t>09SS19960416_pig</t>
+  </si>
+  <si>
+    <t>09SS19960513_pig</t>
+  </si>
+  <si>
+    <t>09SS19961120_pig</t>
+  </si>
+  <si>
+    <t>09SS19990110_pig</t>
+  </si>
+  <si>
+    <t>09SS19990206_pig</t>
+  </si>
+  <si>
+    <t>09SS20030822_pig</t>
+  </si>
+  <si>
+    <t>09SS20040120_pig</t>
+  </si>
+  <si>
+    <t>09SS20040723_pig</t>
+  </si>
+  <si>
+    <t>09SS20050721_pig</t>
+  </si>
+  <si>
+    <t>09SS20051118_pig</t>
+  </si>
+  <si>
+    <t>09SS20100730_pig</t>
+  </si>
+  <si>
+    <t>09SS20101015_pig</t>
+  </si>
+  <si>
+    <t>09SS20120811_pig</t>
+  </si>
+  <si>
+    <t>09SS20120907_pig</t>
+  </si>
+  <si>
+    <t>PAL-LTER_pig_hplc</t>
+  </si>
+  <si>
+    <t>PAL-LTER_pig_chl</t>
+  </si>
+  <si>
+    <t>320619961002_pig</t>
+  </si>
+  <si>
+    <t>320619970113_pig</t>
+  </si>
+  <si>
+    <t>320619961002_fluor</t>
+  </si>
+  <si>
+    <t>320619970113_fluor</t>
   </si>
 </sst>
 </file>
@@ -1466,15 +1553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50972AA6-2965-4F2B-AD21-A9711D8DE30C}">
-  <dimension ref="A1:BU29"/>
+  <dimension ref="A1:BV29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1506,196 +1593,199 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -1727,55 +1817,58 @@
         <v>103</v>
       </c>
       <c r="K2" t="s">
+        <v>361</v>
+      </c>
+      <c r="L2" t="s">
         <v>104</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>105</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>106</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>107</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>108</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>109</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>110</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>111</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>112</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>114</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>117</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1807,115 +1900,118 @@
         <v>120</v>
       </c>
       <c r="K3" t="s">
+        <v>362</v>
+      </c>
+      <c r="L3" t="s">
         <v>104</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>105</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>106</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>107</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>108</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>109</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>110</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>111</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>112</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>113</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>114</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>115</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>116</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>117</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>121</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>122</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>123</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>124</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>125</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>49</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>126</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>127</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>128</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>129</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>130</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>131</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>56</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>132</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>133</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>134</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BO3" t="s">
         <v>135</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>136</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
         <v>137</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BT3" t="s">
         <v>138</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BU3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1947,124 +2043,127 @@
         <v>141</v>
       </c>
       <c r="K4" t="s">
+        <v>363</v>
+      </c>
+      <c r="L4" t="s">
         <v>104</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>105</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>106</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>107</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>108</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>109</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>110</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>111</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>112</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>113</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>114</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>142</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>116</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>117</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>143</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>144</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>145</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>146</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>147</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>148</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>149</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>150</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>151</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>49</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>152</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>153</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>154</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>155</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>156</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>157</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>158</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>159</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>160</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>161</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BO4" t="s">
         <v>162</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>163</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2096,109 +2195,112 @@
         <v>166</v>
       </c>
       <c r="K5" t="s">
+        <v>364</v>
+      </c>
+      <c r="L5" t="s">
         <v>104</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>167</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>107</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>168</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>110</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>169</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>170</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>171</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>172</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>173</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>115</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>117</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>143</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>148</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>149</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>150</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>151</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>49</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>152</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>153</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>154</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>155</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>156</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>157</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>158</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>159</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>160</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>174</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>161</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BO5" t="s">
         <v>162</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BP5" t="s">
         <v>163</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BQ5" t="s">
         <v>164</v>
       </c>
-      <c r="BS5" t="s">
+      <c r="BT5" t="s">
         <v>175</v>
       </c>
-      <c r="BT5" t="s">
+      <c r="BU5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -2230,124 +2332,127 @@
         <v>178</v>
       </c>
       <c r="K6" t="s">
+        <v>365</v>
+      </c>
+      <c r="L6" t="s">
         <v>104</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>105</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>106</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>107</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>108</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>109</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>110</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>111</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>112</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>23</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>113</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>114</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>115</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>116</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>117</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>36</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>179</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>180</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>40</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>123</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AV6" t="s">
         <v>124</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>125</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>49</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>181</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>182</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>52</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>129</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BD6" t="s">
         <v>183</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BE6" t="s">
         <v>184</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BF6" t="s">
         <v>56</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BG6" t="s">
         <v>57</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>59</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BK6" t="s">
         <v>185</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BL6" t="s">
         <v>186</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BO6" t="s">
         <v>65</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BP6" t="s">
         <v>187</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BQ6" t="s">
         <v>188</v>
       </c>
-      <c r="BS6" t="s">
+      <c r="BT6" t="s">
         <v>189</v>
       </c>
-      <c r="BT6" t="s">
+      <c r="BU6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -2379,124 +2484,127 @@
         <v>192</v>
       </c>
       <c r="K7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L7" t="s">
         <v>104</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>105</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>106</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>107</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>108</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>109</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>110</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>111</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>112</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>23</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>113</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>114</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>115</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>116</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>117</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>36</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>179</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>180</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>40</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>123</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AV7" t="s">
         <v>124</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>125</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>49</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>193</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>194</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>195</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>129</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BD7" t="s">
         <v>196</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
         <v>184</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BF7" t="s">
         <v>197</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7" t="s">
         <v>132</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>160</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>198</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BK7" t="s">
         <v>185</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BL7" t="s">
         <v>186</v>
       </c>
-      <c r="BN7" t="s">
+      <c r="BO7" t="s">
         <v>162</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BP7" t="s">
         <v>199</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BQ7" t="s">
         <v>164</v>
       </c>
-      <c r="BT7" t="s">
+      <c r="BU7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -2528,109 +2636,112 @@
         <v>205</v>
       </c>
       <c r="K8" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" t="s">
         <v>206</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-9999</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-8888</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>207</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>208</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>209</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>210</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>211</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>212</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>213</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>214</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>115</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>215</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>216</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>217</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>218</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>219</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>220</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AV8" t="s">
         <v>221</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>222</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>223</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>224</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>128</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>53</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BD8" t="s">
         <v>130</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BE8" t="s">
         <v>131</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8" t="s">
         <v>132</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BI8" t="s">
         <v>133</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BK8" t="s">
         <v>225</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BL8" t="s">
         <v>226</v>
       </c>
-      <c r="BN8" t="s">
+      <c r="BO8" t="s">
         <v>135</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BP8" t="s">
         <v>136</v>
       </c>
-      <c r="BP8" t="s">
+      <c r="BQ8" t="s">
         <v>137</v>
       </c>
-      <c r="BU8" t="s">
+      <c r="BV8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -2659,133 +2770,136 @@
         <v>232</v>
       </c>
       <c r="K9" t="s">
+        <v>368</v>
+      </c>
+      <c r="L9" t="s">
         <v>104</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-999</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>107</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>233</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>111</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>234</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>111</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>234</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>113</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>114</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>115</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>217</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>236</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>237</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>238</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>239</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>240</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>241</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>242</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AV9" t="s">
         <v>243</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AW9" t="s">
         <v>244</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>245</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>246</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>247</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>248</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BB9" t="s">
         <v>128</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
         <v>53</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BD9" t="s">
         <v>130</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BE9" t="s">
         <v>131</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BF9" t="s">
         <v>197</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BG9" t="s">
         <v>132</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>133</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BJ9" t="s">
         <v>249</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BK9" t="s">
         <v>250</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="BN9" t="s">
         <v>251</v>
       </c>
-      <c r="BN9" t="s">
+      <c r="BO9" t="s">
         <v>135</v>
       </c>
-      <c r="BO9" t="s">
+      <c r="BP9" t="s">
         <v>136</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="BQ9" t="s">
         <v>137</v>
       </c>
-      <c r="BS9" t="s">
+      <c r="BT9" t="s">
         <v>70</v>
       </c>
-      <c r="BT9" t="s">
+      <c r="BU9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -2814,133 +2928,136 @@
         <v>254</v>
       </c>
       <c r="K10" t="s">
+        <v>369</v>
+      </c>
+      <c r="L10" t="s">
         <v>104</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-999</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>107</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>233</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>111</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>234</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>111</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>234</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>113</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>114</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>115</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>235</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>217</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>236</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>237</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>238</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>239</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>240</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>241</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>242</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AV10" t="s">
         <v>243</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>244</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>245</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>246</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>247</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>248</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>128</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>53</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>130</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BE10" t="s">
         <v>131</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>197</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>132</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>133</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
         <v>249</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>250</v>
       </c>
-      <c r="BM10" t="s">
+      <c r="BN10" t="s">
         <v>251</v>
       </c>
-      <c r="BN10" t="s">
+      <c r="BO10" t="s">
         <v>135</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="BP10" t="s">
         <v>136</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BQ10" t="s">
         <v>137</v>
       </c>
-      <c r="BS10" t="s">
+      <c r="BT10" t="s">
         <v>70</v>
       </c>
-      <c r="BT10" t="s">
+      <c r="BU10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -2969,133 +3086,136 @@
         <v>257</v>
       </c>
       <c r="K11" t="s">
+        <v>370</v>
+      </c>
+      <c r="L11" t="s">
         <v>104</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-999</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>107</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>233</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>111</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>234</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>111</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>234</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>113</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>114</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>115</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>235</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>217</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>236</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>237</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>238</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>239</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
         <v>240</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>241</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>242</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AV11" t="s">
         <v>243</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
         <v>244</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>245</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>246</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>247</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>248</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BB11" t="s">
         <v>128</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
         <v>53</v>
       </c>
-      <c r="BC11" t="s">
+      <c r="BD11" t="s">
         <v>130</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BE11" t="s">
         <v>131</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BF11" t="s">
         <v>197</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BG11" t="s">
         <v>132</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BI11" t="s">
         <v>133</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BJ11" t="s">
         <v>249</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BK11" t="s">
         <v>250</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BN11" t="s">
         <v>251</v>
       </c>
-      <c r="BN11" t="s">
+      <c r="BO11" t="s">
         <v>135</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BP11" t="s">
         <v>136</v>
       </c>
-      <c r="BP11" t="s">
+      <c r="BQ11" t="s">
         <v>137</v>
       </c>
-      <c r="BS11" t="s">
+      <c r="BT11" t="s">
         <v>70</v>
       </c>
-      <c r="BT11" t="s">
+      <c r="BU11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -3124,133 +3244,136 @@
         <v>254</v>
       </c>
       <c r="K12" t="s">
+        <v>371</v>
+      </c>
+      <c r="L12" t="s">
         <v>104</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-999</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>107</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>233</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>111</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>234</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>111</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>234</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>113</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>114</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>115</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>235</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>217</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>236</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>237</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>238</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>239</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>240</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>241</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>242</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
         <v>243</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
         <v>244</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>245</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>246</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>247</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>248</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
         <v>128</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>53</v>
       </c>
-      <c r="BC12" t="s">
+      <c r="BD12" t="s">
         <v>130</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BE12" t="s">
         <v>131</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BF12" t="s">
         <v>197</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BG12" t="s">
         <v>132</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>133</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
         <v>249</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BK12" t="s">
         <v>250</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BN12" t="s">
         <v>251</v>
       </c>
-      <c r="BN12" t="s">
+      <c r="BO12" t="s">
         <v>135</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BP12" t="s">
         <v>136</v>
       </c>
-      <c r="BP12" t="s">
+      <c r="BQ12" t="s">
         <v>137</v>
       </c>
-      <c r="BS12" t="s">
+      <c r="BT12" t="s">
         <v>70</v>
       </c>
-      <c r="BT12" t="s">
+      <c r="BU12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -3279,136 +3402,139 @@
         <v>261</v>
       </c>
       <c r="K13" t="s">
+        <v>372</v>
+      </c>
+      <c r="L13" t="s">
         <v>104</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-999</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>167</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>107</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>233</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>111</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>234</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>111</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>234</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>113</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>114</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>115</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>235</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>217</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>236</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>237</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>238</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>239</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AP13" t="s">
         <v>240</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
         <v>241</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>242</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AV13" t="s">
         <v>243</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AW13" t="s">
         <v>244</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>245</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>246</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>247</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>248</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>128</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>53</v>
       </c>
-      <c r="BC13" t="s">
+      <c r="BD13" t="s">
         <v>130</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BE13" t="s">
         <v>131</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BF13" t="s">
         <v>197</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BG13" t="s">
         <v>132</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BI13" t="s">
         <v>133</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BJ13" t="s">
         <v>249</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>250</v>
       </c>
-      <c r="BM13" t="s">
+      <c r="BN13" t="s">
         <v>251</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="BO13" t="s">
         <v>135</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BP13" t="s">
         <v>136</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BQ13" t="s">
         <v>137</v>
       </c>
-      <c r="BS13" t="s">
+      <c r="BT13" t="s">
         <v>70</v>
       </c>
-      <c r="BT13" t="s">
+      <c r="BU13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -3437,133 +3563,136 @@
         <v>264</v>
       </c>
       <c r="K14" t="s">
+        <v>373</v>
+      </c>
+      <c r="L14" t="s">
         <v>104</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-999</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>107</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>233</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>111</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>234</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>111</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>234</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>113</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>114</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>115</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>235</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>217</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>236</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>237</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>238</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>239</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AP14" t="s">
         <v>240</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
         <v>241</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AT14" t="s">
         <v>242</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AV14" t="s">
         <v>243</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AW14" t="s">
         <v>244</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AX14" t="s">
         <v>245</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>246</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>247</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
         <v>248</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BB14" t="s">
         <v>128</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BC14" t="s">
         <v>53</v>
       </c>
-      <c r="BC14" t="s">
+      <c r="BD14" t="s">
         <v>130</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BE14" t="s">
         <v>131</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BF14" t="s">
         <v>197</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BG14" t="s">
         <v>132</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BI14" t="s">
         <v>133</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BJ14" t="s">
         <v>249</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BK14" t="s">
         <v>250</v>
       </c>
-      <c r="BM14" t="s">
+      <c r="BN14" t="s">
         <v>251</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="BO14" t="s">
         <v>135</v>
       </c>
-      <c r="BO14" t="s">
+      <c r="BP14" t="s">
         <v>136</v>
       </c>
-      <c r="BP14" t="s">
+      <c r="BQ14" t="s">
         <v>137</v>
       </c>
-      <c r="BS14" t="s">
+      <c r="BT14" t="s">
         <v>70</v>
       </c>
-      <c r="BT14" t="s">
+      <c r="BU14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -3592,130 +3721,133 @@
         <v>261</v>
       </c>
       <c r="K15" t="s">
+        <v>374</v>
+      </c>
+      <c r="L15" t="s">
         <v>104</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-999</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>107</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>111</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>234</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>111</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>234</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>113</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>114</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>115</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>235</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>217</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>236</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>237</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>238</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>239</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" t="s">
         <v>240</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
         <v>241</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>242</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AV15" t="s">
         <v>243</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AW15" t="s">
         <v>244</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AX15" t="s">
         <v>245</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>246</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>247</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
         <v>248</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BB15" t="s">
         <v>128</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BC15" t="s">
         <v>53</v>
       </c>
-      <c r="BC15" t="s">
+      <c r="BD15" t="s">
         <v>130</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BE15" t="s">
         <v>131</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BF15" t="s">
         <v>197</v>
       </c>
-      <c r="BF15" t="s">
+      <c r="BG15" t="s">
         <v>132</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BI15" t="s">
         <v>133</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BJ15" t="s">
         <v>249</v>
       </c>
-      <c r="BJ15" t="s">
+      <c r="BK15" t="s">
         <v>250</v>
       </c>
-      <c r="BM15" t="s">
+      <c r="BN15" t="s">
         <v>251</v>
       </c>
-      <c r="BN15" t="s">
+      <c r="BO15" t="s">
         <v>135</v>
       </c>
-      <c r="BO15" t="s">
+      <c r="BP15" t="s">
         <v>136</v>
       </c>
-      <c r="BP15" t="s">
+      <c r="BQ15" t="s">
         <v>137</v>
       </c>
-      <c r="BS15" t="s">
+      <c r="BT15" t="s">
         <v>70</v>
       </c>
-      <c r="BT15" t="s">
+      <c r="BU15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -3744,133 +3876,136 @@
         <v>232</v>
       </c>
       <c r="K16" t="s">
+        <v>375</v>
+      </c>
+      <c r="L16" t="s">
         <v>104</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-999</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>107</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>233</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>111</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>234</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>111</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>234</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>113</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>114</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>115</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>235</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>217</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>236</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>237</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>238</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>239</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AP16" t="s">
         <v>240</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" t="s">
         <v>241</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>242</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AV16" t="s">
         <v>243</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
         <v>244</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>245</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>246</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>247</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BA16" t="s">
         <v>248</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BB16" t="s">
         <v>128</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BC16" t="s">
         <v>53</v>
       </c>
-      <c r="BC16" t="s">
+      <c r="BD16" t="s">
         <v>130</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BE16" t="s">
         <v>131</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BF16" t="s">
         <v>197</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BG16" t="s">
         <v>132</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
         <v>133</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BJ16" t="s">
         <v>249</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BK16" t="s">
         <v>250</v>
       </c>
-      <c r="BM16" t="s">
+      <c r="BN16" t="s">
         <v>251</v>
       </c>
-      <c r="BN16" t="s">
+      <c r="BO16" t="s">
         <v>135</v>
       </c>
-      <c r="BO16" t="s">
+      <c r="BP16" t="s">
         <v>136</v>
       </c>
-      <c r="BP16" t="s">
+      <c r="BQ16" t="s">
         <v>137</v>
       </c>
-      <c r="BS16" t="s">
+      <c r="BT16" t="s">
         <v>70</v>
       </c>
-      <c r="BT16" t="s">
+      <c r="BU16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -3899,133 +4034,136 @@
         <v>269</v>
       </c>
       <c r="K17" t="s">
+        <v>376</v>
+      </c>
+      <c r="L17" t="s">
         <v>104</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-999</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>107</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>233</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>111</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>234</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>111</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>234</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>113</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>114</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>115</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>235</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>217</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>236</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>237</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>238</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>239</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>240</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>241</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>242</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AV17" t="s">
         <v>243</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>244</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>245</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>246</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>247</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>248</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>128</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>53</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>130</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BE17" t="s">
         <v>131</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>197</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
         <v>132</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>133</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>249</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>250</v>
       </c>
-      <c r="BM17" t="s">
+      <c r="BN17" t="s">
         <v>251</v>
       </c>
-      <c r="BN17" t="s">
+      <c r="BO17" t="s">
         <v>135</v>
       </c>
-      <c r="BO17" t="s">
+      <c r="BP17" t="s">
         <v>136</v>
       </c>
-      <c r="BP17" t="s">
+      <c r="BQ17" t="s">
         <v>137</v>
       </c>
-      <c r="BS17" t="s">
+      <c r="BT17" t="s">
         <v>70</v>
       </c>
-      <c r="BT17" t="s">
+      <c r="BU17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -4054,133 +4192,136 @@
         <v>269</v>
       </c>
       <c r="K18" t="s">
+        <v>377</v>
+      </c>
+      <c r="L18" t="s">
         <v>104</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-999</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>107</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>233</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>111</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>234</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>111</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>234</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>113</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>114</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>115</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>235</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>217</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>236</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>237</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>238</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>239</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AP18" t="s">
         <v>240</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>241</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AT18" t="s">
         <v>242</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AV18" t="s">
         <v>243</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AW18" t="s">
         <v>244</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>245</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>246</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>247</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BA18" t="s">
         <v>248</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BB18" t="s">
         <v>128</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BC18" t="s">
         <v>53</v>
       </c>
-      <c r="BC18" t="s">
+      <c r="BD18" t="s">
         <v>130</v>
       </c>
-      <c r="BD18" t="s">
+      <c r="BE18" t="s">
         <v>131</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BF18" t="s">
         <v>197</v>
       </c>
-      <c r="BF18" t="s">
+      <c r="BG18" t="s">
         <v>132</v>
       </c>
-      <c r="BH18" t="s">
+      <c r="BI18" t="s">
         <v>133</v>
       </c>
-      <c r="BI18" t="s">
+      <c r="BJ18" t="s">
         <v>249</v>
       </c>
-      <c r="BJ18" t="s">
+      <c r="BK18" t="s">
         <v>250</v>
       </c>
-      <c r="BM18" t="s">
+      <c r="BN18" t="s">
         <v>251</v>
       </c>
-      <c r="BN18" t="s">
+      <c r="BO18" t="s">
         <v>135</v>
       </c>
-      <c r="BO18" t="s">
+      <c r="BP18" t="s">
         <v>136</v>
       </c>
-      <c r="BP18" t="s">
+      <c r="BQ18" t="s">
         <v>137</v>
       </c>
-      <c r="BS18" t="s">
+      <c r="BT18" t="s">
         <v>70</v>
       </c>
-      <c r="BT18" t="s">
+      <c r="BU18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -4209,133 +4350,136 @@
         <v>274</v>
       </c>
       <c r="K19" t="s">
+        <v>378</v>
+      </c>
+      <c r="L19" t="s">
         <v>104</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-999</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>107</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>233</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>111</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>275</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>111</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>234</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>113</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>114</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>115</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>235</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>217</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>236</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>237</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>238</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>239</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AP19" t="s">
         <v>240</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>241</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AT19" t="s">
         <v>242</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AV19" t="s">
         <v>243</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AW19" t="s">
         <v>244</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AX19" t="s">
         <v>245</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AY19" t="s">
         <v>246</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="AZ19" t="s">
         <v>247</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BA19" t="s">
         <v>248</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BB19" t="s">
         <v>128</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BC19" t="s">
         <v>53</v>
       </c>
-      <c r="BC19" t="s">
+      <c r="BD19" t="s">
         <v>130</v>
       </c>
-      <c r="BD19" t="s">
+      <c r="BE19" t="s">
         <v>131</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BF19" t="s">
         <v>197</v>
       </c>
-      <c r="BF19" t="s">
+      <c r="BG19" t="s">
         <v>132</v>
       </c>
-      <c r="BH19" t="s">
+      <c r="BI19" t="s">
         <v>133</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BJ19" t="s">
         <v>249</v>
       </c>
-      <c r="BJ19" t="s">
+      <c r="BK19" t="s">
         <v>250</v>
       </c>
-      <c r="BM19" t="s">
+      <c r="BN19" t="s">
         <v>251</v>
       </c>
-      <c r="BN19" t="s">
+      <c r="BO19" t="s">
         <v>135</v>
       </c>
-      <c r="BO19" t="s">
+      <c r="BP19" t="s">
         <v>136</v>
       </c>
-      <c r="BP19" t="s">
+      <c r="BQ19" t="s">
         <v>137</v>
       </c>
-      <c r="BS19" t="s">
+      <c r="BT19" t="s">
         <v>70</v>
       </c>
-      <c r="BT19" t="s">
+      <c r="BU19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -4364,133 +4508,136 @@
         <v>278</v>
       </c>
       <c r="K20" t="s">
+        <v>379</v>
+      </c>
+      <c r="L20" t="s">
         <v>104</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-999</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>107</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>233</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>111</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>275</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>111</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>234</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>113</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>114</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>115</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>235</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>217</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>236</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>237</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20" t="s">
         <v>238</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>239</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AP20" t="s">
         <v>240</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>241</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
         <v>242</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AV20" t="s">
         <v>243</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AW20" t="s">
         <v>244</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AX20" t="s">
         <v>245</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AY20" t="s">
         <v>246</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="AZ20" t="s">
         <v>247</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BA20" t="s">
         <v>248</v>
       </c>
-      <c r="BA20" t="s">
+      <c r="BB20" t="s">
         <v>128</v>
       </c>
-      <c r="BB20" t="s">
+      <c r="BC20" t="s">
         <v>53</v>
       </c>
-      <c r="BC20" t="s">
+      <c r="BD20" t="s">
         <v>130</v>
       </c>
-      <c r="BD20" t="s">
+      <c r="BE20" t="s">
         <v>131</v>
       </c>
-      <c r="BE20" t="s">
+      <c r="BF20" t="s">
         <v>197</v>
       </c>
-      <c r="BF20" t="s">
+      <c r="BG20" t="s">
         <v>132</v>
       </c>
-      <c r="BH20" t="s">
+      <c r="BI20" t="s">
         <v>133</v>
       </c>
-      <c r="BI20" t="s">
+      <c r="BJ20" t="s">
         <v>249</v>
       </c>
-      <c r="BJ20" t="s">
+      <c r="BK20" t="s">
         <v>250</v>
       </c>
-      <c r="BM20" t="s">
+      <c r="BN20" t="s">
         <v>251</v>
       </c>
-      <c r="BN20" t="s">
+      <c r="BO20" t="s">
         <v>135</v>
       </c>
-      <c r="BO20" t="s">
+      <c r="BP20" t="s">
         <v>136</v>
       </c>
-      <c r="BP20" t="s">
+      <c r="BQ20" t="s">
         <v>137</v>
       </c>
-      <c r="BS20" t="s">
+      <c r="BT20" t="s">
         <v>70</v>
       </c>
-      <c r="BT20" t="s">
+      <c r="BU20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -4519,133 +4666,136 @@
         <v>281</v>
       </c>
       <c r="K21" t="s">
+        <v>380</v>
+      </c>
+      <c r="L21" t="s">
         <v>104</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-999</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>107</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>233</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>111</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>275</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>111</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>234</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>113</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>114</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>115</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>235</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>217</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>236</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>237</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AL21" t="s">
         <v>238</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>239</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AP21" t="s">
         <v>240</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
         <v>241</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AT21" t="s">
         <v>242</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AV21" t="s">
         <v>243</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AW21" t="s">
         <v>244</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AX21" t="s">
         <v>245</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="AY21" t="s">
         <v>246</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="AZ21" t="s">
         <v>247</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BA21" t="s">
         <v>248</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BB21" t="s">
         <v>128</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BC21" t="s">
         <v>53</v>
       </c>
-      <c r="BC21" t="s">
+      <c r="BD21" t="s">
         <v>130</v>
       </c>
-      <c r="BD21" t="s">
+      <c r="BE21" t="s">
         <v>131</v>
       </c>
-      <c r="BE21" t="s">
+      <c r="BF21" t="s">
         <v>197</v>
       </c>
-      <c r="BF21" t="s">
+      <c r="BG21" t="s">
         <v>132</v>
       </c>
-      <c r="BH21" t="s">
+      <c r="BI21" t="s">
         <v>133</v>
       </c>
-      <c r="BI21" t="s">
+      <c r="BJ21" t="s">
         <v>249</v>
       </c>
-      <c r="BJ21" t="s">
+      <c r="BK21" t="s">
         <v>250</v>
       </c>
-      <c r="BM21" t="s">
+      <c r="BN21" t="s">
         <v>251</v>
       </c>
-      <c r="BN21" t="s">
+      <c r="BO21" t="s">
         <v>135</v>
       </c>
-      <c r="BO21" t="s">
+      <c r="BP21" t="s">
         <v>136</v>
       </c>
-      <c r="BP21" t="s">
+      <c r="BQ21" t="s">
         <v>137</v>
       </c>
-      <c r="BS21" t="s">
+      <c r="BT21" t="s">
         <v>70</v>
       </c>
-      <c r="BT21" t="s">
+      <c r="BU21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -4674,133 +4824,136 @@
         <v>284</v>
       </c>
       <c r="K22" t="s">
+        <v>381</v>
+      </c>
+      <c r="L22" t="s">
         <v>104</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-999</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>107</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>233</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>111</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>275</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>234</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>113</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>114</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>115</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>235</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>217</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>236</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>237</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
         <v>238</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>239</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AP22" t="s">
         <v>240</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>241</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>242</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AV22" t="s">
         <v>243</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AW22" t="s">
         <v>244</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>245</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>246</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>247</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>248</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BB22" t="s">
         <v>128</v>
       </c>
-      <c r="BB22" t="s">
+      <c r="BC22" t="s">
         <v>53</v>
       </c>
-      <c r="BC22" t="s">
+      <c r="BD22" t="s">
         <v>130</v>
       </c>
-      <c r="BD22" t="s">
+      <c r="BE22" t="s">
         <v>131</v>
       </c>
-      <c r="BE22" t="s">
+      <c r="BF22" t="s">
         <v>197</v>
       </c>
-      <c r="BF22" t="s">
+      <c r="BG22" t="s">
         <v>132</v>
       </c>
-      <c r="BH22" t="s">
+      <c r="BI22" t="s">
         <v>133</v>
       </c>
-      <c r="BI22" t="s">
+      <c r="BJ22" t="s">
         <v>249</v>
       </c>
-      <c r="BJ22" t="s">
+      <c r="BK22" t="s">
         <v>250</v>
       </c>
-      <c r="BM22" t="s">
+      <c r="BN22" t="s">
         <v>251</v>
       </c>
-      <c r="BN22" t="s">
+      <c r="BO22" t="s">
         <v>135</v>
       </c>
-      <c r="BO22" t="s">
+      <c r="BP22" t="s">
         <v>136</v>
       </c>
-      <c r="BP22" t="s">
+      <c r="BQ22" t="s">
         <v>137</v>
       </c>
-      <c r="BS22" t="s">
+      <c r="BT22" t="s">
         <v>70</v>
       </c>
-      <c r="BT22" t="s">
+      <c r="BU22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -4829,136 +4982,139 @@
         <v>284</v>
       </c>
       <c r="K23" t="s">
+        <v>382</v>
+      </c>
+      <c r="L23" t="s">
         <v>104</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-999</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>167</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>107</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>233</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>111</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>275</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>111</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>234</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>113</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>114</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>115</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>235</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>217</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>236</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
         <v>237</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AL23" t="s">
         <v>238</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
         <v>239</v>
       </c>
-      <c r="AO23" t="s">
+      <c r="AP23" t="s">
         <v>240</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
         <v>241</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AT23" t="s">
         <v>242</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AV23" t="s">
         <v>243</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AW23" t="s">
         <v>244</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
         <v>245</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AY23" t="s">
         <v>246</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>247</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>248</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BB23" t="s">
         <v>128</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BC23" t="s">
         <v>53</v>
       </c>
-      <c r="BC23" t="s">
+      <c r="BD23" t="s">
         <v>130</v>
       </c>
-      <c r="BD23" t="s">
+      <c r="BE23" t="s">
         <v>131</v>
       </c>
-      <c r="BE23" t="s">
+      <c r="BF23" t="s">
         <v>197</v>
       </c>
-      <c r="BF23" t="s">
+      <c r="BG23" t="s">
         <v>132</v>
       </c>
-      <c r="BH23" t="s">
+      <c r="BI23" t="s">
         <v>133</v>
       </c>
-      <c r="BI23" t="s">
+      <c r="BJ23" t="s">
         <v>249</v>
       </c>
-      <c r="BJ23" t="s">
+      <c r="BK23" t="s">
         <v>250</v>
       </c>
-      <c r="BM23" t="s">
+      <c r="BN23" t="s">
         <v>251</v>
       </c>
-      <c r="BN23" t="s">
+      <c r="BO23" t="s">
         <v>135</v>
       </c>
-      <c r="BO23" t="s">
+      <c r="BP23" t="s">
         <v>136</v>
       </c>
-      <c r="BP23" t="s">
+      <c r="BQ23" t="s">
         <v>137</v>
       </c>
-      <c r="BS23" t="s">
+      <c r="BT23" t="s">
         <v>70</v>
       </c>
-      <c r="BT23" t="s">
+      <c r="BU23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -4987,118 +5143,121 @@
         <v>290</v>
       </c>
       <c r="K24" t="s">
+        <v>383</v>
+      </c>
+      <c r="L24" t="s">
         <v>104</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-999</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>291</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>207</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>292</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>293</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>294</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>293</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>294</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>113</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>114</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>115</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>295</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>235</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>117</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
         <v>296</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>297</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>298</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AP24" t="s">
         <v>299</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AV24" t="s">
         <v>300</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AX24" t="s">
         <v>301</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="AZ24" t="s">
         <v>302</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BA24" t="s">
         <v>303</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BB24" t="s">
         <v>304</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BC24" t="s">
         <v>129</v>
       </c>
-      <c r="BC24" t="s">
+      <c r="BD24" t="s">
         <v>305</v>
       </c>
-      <c r="BD24" t="s">
+      <c r="BE24" t="s">
         <v>306</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="BF24" t="s">
         <v>56</v>
       </c>
-      <c r="BF24" t="s">
+      <c r="BG24" t="s">
         <v>307</v>
       </c>
-      <c r="BH24" t="s">
+      <c r="BI24" t="s">
         <v>308</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BJ24" t="s">
         <v>309</v>
       </c>
-      <c r="BJ24" t="s">
+      <c r="BK24" t="s">
         <v>310</v>
       </c>
-      <c r="BN24" t="s">
+      <c r="BO24" t="s">
         <v>311</v>
       </c>
-      <c r="BO24" t="s">
+      <c r="BP24" t="s">
         <v>312</v>
       </c>
-      <c r="BP24" t="s">
+      <c r="BQ24" t="s">
         <v>313</v>
       </c>
-      <c r="BS24" t="s">
+      <c r="BT24" t="s">
         <v>314</v>
       </c>
-      <c r="BT24" t="s">
+      <c r="BU24" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -5124,88 +5283,91 @@
         <v>327</v>
       </c>
       <c r="K25" t="s">
+        <v>385</v>
+      </c>
+      <c r="L25" t="s">
         <v>104</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>328</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>107</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>358</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>359</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>329</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>330</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>331</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>332</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AL25" t="s">
         <v>333</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>334</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AP25" t="s">
         <v>335</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AR25" t="s">
         <v>336</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>337</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>338</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>339</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BB25" t="s">
         <v>340</v>
       </c>
-      <c r="BB25" t="s">
+      <c r="BC25" t="s">
         <v>341</v>
       </c>
-      <c r="BC25" t="s">
+      <c r="BD25" t="s">
         <v>342</v>
       </c>
-      <c r="BD25" t="s">
+      <c r="BE25" t="s">
         <v>184</v>
       </c>
-      <c r="BE25" t="s">
+      <c r="BF25" t="s">
         <v>343</v>
       </c>
-      <c r="BF25" t="s">
+      <c r="BG25" t="s">
         <v>344</v>
       </c>
-      <c r="BH25" t="s">
+      <c r="BI25" t="s">
         <v>160</v>
       </c>
-      <c r="BI25" t="s">
+      <c r="BJ25" t="s">
         <v>345</v>
       </c>
-      <c r="BJ25" t="s">
+      <c r="BK25" t="s">
         <v>346</v>
       </c>
-      <c r="BO25" t="s">
+      <c r="BP25" t="s">
         <v>347</v>
       </c>
-      <c r="BP25" t="s">
+      <c r="BQ25" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -5231,91 +5393,94 @@
         <v>327</v>
       </c>
       <c r="K26" t="s">
+        <v>386</v>
+      </c>
+      <c r="L26" t="s">
         <v>104</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>328</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>107</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>358</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>359</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>329</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>330</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>331</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>332</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
         <v>333</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>334</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AP26" t="s">
         <v>335</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>336</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>337</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>338</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>339</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>340</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>341</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
         <v>342</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BE26" t="s">
         <v>184</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BF26" t="s">
         <v>343</v>
       </c>
-      <c r="BF26" t="s">
+      <c r="BG26" t="s">
         <v>344</v>
       </c>
-      <c r="BH26" t="s">
+      <c r="BI26" t="s">
         <v>160</v>
       </c>
-      <c r="BI26" t="s">
+      <c r="BJ26" t="s">
         <v>345</v>
       </c>
-      <c r="BJ26" t="s">
+      <c r="BK26" t="s">
         <v>346</v>
       </c>
-      <c r="BO26" t="s">
+      <c r="BP26" t="s">
         <v>347</v>
       </c>
-      <c r="BP26" t="s">
+      <c r="BQ26" t="s">
         <v>348</v>
       </c>
-      <c r="BU26" t="s">
+      <c r="BV26" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -5344,58 +5509,61 @@
         <v>319</v>
       </c>
       <c r="K27" t="s">
+        <v>384</v>
+      </c>
+      <c r="L27" t="s">
         <v>320</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-999</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>321</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>207</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>292</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>293</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>294</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>293</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>294</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>113</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>114</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>115</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>295</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>235</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>217</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>322</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -5421,37 +5589,40 @@
         <v>327</v>
       </c>
       <c r="K28" t="s">
+        <v>387</v>
+      </c>
+      <c r="L28" t="s">
         <v>351</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>328</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>107</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>358</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>359</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>329</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>330</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>117</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>352</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -5477,33 +5648,36 @@
         <v>327</v>
       </c>
       <c r="K29" t="s">
+        <v>388</v>
+      </c>
+      <c r="L29" t="s">
         <v>351</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>328</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>107</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>358</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>359</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>329</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>330</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>117</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>352</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>353</v>
       </c>
     </row>

--- a/product_data/processing_metadata/C2/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C2/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{070497C2-19CC-4BAD-BA79-40727EC20C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1839111F-5542-418C-A77B-80763AD10A64}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{070497C2-19CC-4BAD-BA79-40727EC20C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24ADD963-9CAB-435C-8AE4-7F435D08AB9E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1011,9 +1011,6 @@
     <t>E:/Data_downloads/JGOFS/320619961002/HPLC_pigments</t>
   </si>
   <si>
-    <t>JGOFS</t>
-  </si>
-  <si>
     <t>Robert R. Bidigare</t>
   </si>
   <si>
@@ -1201,6 +1198,9 @@
   </si>
   <si>
     <t>320619970113_fluor</t>
+  </si>
+  <si>
+    <t>BCO-DMO</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1556,7 @@
   <dimension ref="A1:BV29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1593,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -1817,7 +1817,7 @@
         <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L2" t="s">
         <v>104</v>
@@ -1900,7 +1900,7 @@
         <v>120</v>
       </c>
       <c r="K3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L3" t="s">
         <v>104</v>
@@ -2043,7 +2043,7 @@
         <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L4" t="s">
         <v>104</v>
@@ -2195,7 +2195,7 @@
         <v>166</v>
       </c>
       <c r="K5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L5" t="s">
         <v>104</v>
@@ -2332,7 +2332,7 @@
         <v>178</v>
       </c>
       <c r="K6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L6" t="s">
         <v>104</v>
@@ -2484,7 +2484,7 @@
         <v>192</v>
       </c>
       <c r="K7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L7" t="s">
         <v>104</v>
@@ -2636,7 +2636,7 @@
         <v>205</v>
       </c>
       <c r="K8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L8" t="s">
         <v>206</v>
@@ -2770,7 +2770,7 @@
         <v>232</v>
       </c>
       <c r="K9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L9" t="s">
         <v>104</v>
@@ -2928,7 +2928,7 @@
         <v>254</v>
       </c>
       <c r="K10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L10" t="s">
         <v>104</v>
@@ -3086,7 +3086,7 @@
         <v>257</v>
       </c>
       <c r="K11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L11" t="s">
         <v>104</v>
@@ -3244,7 +3244,7 @@
         <v>254</v>
       </c>
       <c r="K12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L12" t="s">
         <v>104</v>
@@ -3402,7 +3402,7 @@
         <v>261</v>
       </c>
       <c r="K13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L13" t="s">
         <v>104</v>
@@ -3563,7 +3563,7 @@
         <v>264</v>
       </c>
       <c r="K14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L14" t="s">
         <v>104</v>
@@ -3697,7 +3697,7 @@
         <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
@@ -3721,7 +3721,7 @@
         <v>261</v>
       </c>
       <c r="K15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L15" t="s">
         <v>104</v>
@@ -3876,7 +3876,7 @@
         <v>232</v>
       </c>
       <c r="K16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L16" t="s">
         <v>104</v>
@@ -4034,7 +4034,7 @@
         <v>269</v>
       </c>
       <c r="K17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L17" t="s">
         <v>104</v>
@@ -4192,7 +4192,7 @@
         <v>269</v>
       </c>
       <c r="K18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L18" t="s">
         <v>104</v>
@@ -4350,7 +4350,7 @@
         <v>274</v>
       </c>
       <c r="K19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L19" t="s">
         <v>104</v>
@@ -4508,7 +4508,7 @@
         <v>278</v>
       </c>
       <c r="K20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L20" t="s">
         <v>104</v>
@@ -4666,7 +4666,7 @@
         <v>281</v>
       </c>
       <c r="K21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L21" t="s">
         <v>104</v>
@@ -4824,7 +4824,7 @@
         <v>284</v>
       </c>
       <c r="K22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L22" t="s">
         <v>104</v>
@@ -4982,7 +4982,7 @@
         <v>284</v>
       </c>
       <c r="K23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L23" t="s">
         <v>104</v>
@@ -5143,7 +5143,7 @@
         <v>290</v>
       </c>
       <c r="K24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L24" t="s">
         <v>104</v>
@@ -5268,7 +5268,7 @@
         <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="E25" s="1">
         <v>320619961002</v>
@@ -5277,94 +5277,94 @@
         <v>99</v>
       </c>
       <c r="G25" t="s">
+        <v>325</v>
+      </c>
+      <c r="I25" t="s">
         <v>326</v>
       </c>
-      <c r="I25" t="s">
-        <v>327</v>
-      </c>
       <c r="K25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L25" t="s">
         <v>104</v>
       </c>
       <c r="N25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q25" t="s">
         <v>107</v>
       </c>
       <c r="S25" t="s">
+        <v>357</v>
+      </c>
+      <c r="T25" t="s">
         <v>358</v>
       </c>
-      <c r="T25" t="s">
-        <v>359</v>
-      </c>
       <c r="AC25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD25" t="s">
         <v>329</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>330</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AI25" t="s">
         <v>331</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AL25" t="s">
         <v>332</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>333</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AP25" t="s">
         <v>334</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AR25" t="s">
         <v>335</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AX25" t="s">
         <v>336</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AZ25" t="s">
         <v>337</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>338</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BB25" t="s">
         <v>339</v>
       </c>
-      <c r="BB25" t="s">
+      <c r="BC25" t="s">
         <v>340</v>
       </c>
-      <c r="BC25" t="s">
+      <c r="BD25" t="s">
         <v>341</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>342</v>
       </c>
       <c r="BE25" t="s">
         <v>184</v>
       </c>
       <c r="BF25" t="s">
+        <v>342</v>
+      </c>
+      <c r="BG25" t="s">
         <v>343</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>344</v>
       </c>
       <c r="BI25" t="s">
         <v>160</v>
       </c>
       <c r="BJ25" t="s">
+        <v>344</v>
+      </c>
+      <c r="BK25" t="s">
         <v>345</v>
       </c>
-      <c r="BK25" t="s">
+      <c r="BP25" t="s">
         <v>346</v>
       </c>
-      <c r="BP25" t="s">
+      <c r="BQ25" t="s">
         <v>347</v>
-      </c>
-      <c r="BQ25" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:74" x14ac:dyDescent="0.35">
@@ -5372,13 +5372,13 @@
         <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C26" t="s">
         <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="E26" s="1">
         <v>320619970113</v>
@@ -5387,97 +5387,97 @@
         <v>99</v>
       </c>
       <c r="G26" t="s">
+        <v>325</v>
+      </c>
+      <c r="I26" t="s">
         <v>326</v>
       </c>
-      <c r="I26" t="s">
-        <v>327</v>
-      </c>
       <c r="K26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L26" t="s">
         <v>104</v>
       </c>
       <c r="N26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q26" t="s">
         <v>107</v>
       </c>
       <c r="S26" t="s">
+        <v>357</v>
+      </c>
+      <c r="T26" t="s">
         <v>358</v>
       </c>
-      <c r="T26" t="s">
-        <v>359</v>
-      </c>
       <c r="AC26" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD26" t="s">
         <v>329</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>330</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AI26" t="s">
         <v>331</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AL26" t="s">
         <v>332</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>333</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AP26" t="s">
         <v>334</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AR26" t="s">
         <v>335</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AX26" t="s">
         <v>336</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AZ26" t="s">
         <v>337</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>338</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>339</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>340</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
         <v>341</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>342</v>
       </c>
       <c r="BE26" t="s">
         <v>184</v>
       </c>
       <c r="BF26" t="s">
+        <v>342</v>
+      </c>
+      <c r="BG26" t="s">
         <v>343</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>344</v>
       </c>
       <c r="BI26" t="s">
         <v>160</v>
       </c>
       <c r="BJ26" t="s">
+        <v>344</v>
+      </c>
+      <c r="BK26" t="s">
         <v>345</v>
       </c>
-      <c r="BK26" t="s">
+      <c r="BP26" t="s">
         <v>346</v>
       </c>
-      <c r="BP26" t="s">
+      <c r="BQ26" t="s">
         <v>347</v>
       </c>
-      <c r="BQ26" t="s">
-        <v>348</v>
-      </c>
       <c r="BV26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:74" x14ac:dyDescent="0.35">
@@ -5509,7 +5509,7 @@
         <v>319</v>
       </c>
       <c r="K27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L27" t="s">
         <v>320</v>
@@ -5568,13 +5568,13 @@
         <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C28" t="s">
         <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="E28" s="1">
         <v>320619961002</v>
@@ -5583,43 +5583,43 @@
         <v>99</v>
       </c>
       <c r="G28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I28" t="s">
+        <v>326</v>
+      </c>
+      <c r="K28" t="s">
+        <v>386</v>
+      </c>
+      <c r="L28" t="s">
         <v>350</v>
       </c>
-      <c r="I28" t="s">
+      <c r="N28" t="s">
         <v>327</v>
-      </c>
-      <c r="K28" t="s">
-        <v>387</v>
-      </c>
-      <c r="L28" t="s">
-        <v>351</v>
-      </c>
-      <c r="N28" t="s">
-        <v>328</v>
       </c>
       <c r="Q28" t="s">
         <v>107</v>
       </c>
       <c r="S28" t="s">
+        <v>357</v>
+      </c>
+      <c r="T28" t="s">
         <v>358</v>
       </c>
-      <c r="T28" t="s">
-        <v>359</v>
-      </c>
       <c r="AC28" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD28" t="s">
         <v>329</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>330</v>
       </c>
       <c r="AE28" t="s">
         <v>117</v>
       </c>
       <c r="AF28" t="s">
+        <v>351</v>
+      </c>
+      <c r="AG28" t="s">
         <v>352</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:74" x14ac:dyDescent="0.35">
@@ -5627,13 +5627,13 @@
         <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
         <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="E29" s="1">
         <v>320619970113</v>
@@ -5642,43 +5642,43 @@
         <v>99</v>
       </c>
       <c r="G29" t="s">
+        <v>349</v>
+      </c>
+      <c r="I29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K29" t="s">
+        <v>387</v>
+      </c>
+      <c r="L29" t="s">
         <v>350</v>
       </c>
-      <c r="I29" t="s">
+      <c r="N29" t="s">
         <v>327</v>
-      </c>
-      <c r="K29" t="s">
-        <v>388</v>
-      </c>
-      <c r="L29" t="s">
-        <v>351</v>
-      </c>
-      <c r="N29" t="s">
-        <v>328</v>
       </c>
       <c r="Q29" t="s">
         <v>107</v>
       </c>
       <c r="S29" t="s">
+        <v>357</v>
+      </c>
+      <c r="T29" t="s">
         <v>358</v>
       </c>
-      <c r="T29" t="s">
-        <v>359</v>
-      </c>
       <c r="AC29" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD29" t="s">
         <v>329</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>330</v>
       </c>
       <c r="AE29" t="s">
         <v>117</v>
       </c>
       <c r="AF29" t="s">
+        <v>351</v>
+      </c>
+      <c r="AG29" t="s">
         <v>352</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/C2/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C2/PIG_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{070497C2-19CC-4BAD-BA79-40727EC20C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24ADD963-9CAB-435C-8AE4-7F435D08AB9E}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{070497C2-19CC-4BAD-BA79-40727EC20C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E49F7E46-37D9-496D-800B-50DA6BBA9973}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="392">
   <si>
     <t>file_type</t>
   </si>
@@ -348,9 +348,6 @@
     <t>10.4225/15/5212CDBC6EC44</t>
   </si>
   <si>
-    <t>Wright_etal_1991</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -1086,9 +1083,6 @@
     <t>Walker O. Smith</t>
   </si>
   <si>
-    <t>JGOFS_1994_2</t>
-  </si>
-  <si>
     <t>chl_a_fluor</t>
   </si>
   <si>
@@ -1201,16 +1195,37 @@
   </si>
   <si>
     <t>BCO-DMO</t>
+  </si>
+  <si>
+    <t>analysis_type</t>
+  </si>
+  <si>
+    <t>Wright_1991</t>
+  </si>
+  <si>
+    <t>JGOFS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>HPLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1553,15 +1568,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50972AA6-2965-4F2B-AD21-A9711D8DE30C}">
-  <dimension ref="A1:BV29"/>
+  <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1593,199 +1608,202 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -1817,63 +1835,66 @@
         <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M2" t="s">
+        <v>388</v>
+      </c>
+      <c r="O2" t="s">
         <v>104</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>105</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>107</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>108</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>109</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>110</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>111</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="s">
         <v>112</v>
       </c>
-      <c r="Y2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>113</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>114</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>115</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>116</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AM2" t="s">
         <v>117</v>
       </c>
-      <c r="AL2" t="s">
-        <v>118</v>
-      </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>97</v>
@@ -1897,126 +1918,129 @@
         <v>102</v>
       </c>
       <c r="J3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L3" t="s">
+        <v>391</v>
+      </c>
+      <c r="M3" t="s">
+        <v>388</v>
+      </c>
+      <c r="O3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V3" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>120</v>
       </c>
-      <c r="K3" t="s">
-        <v>361</v>
-      </c>
-      <c r="L3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>107</v>
-      </c>
-      <c r="S3" t="s">
-        <v>108</v>
-      </c>
-      <c r="U3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V3" t="s">
-        <v>110</v>
-      </c>
-      <c r="W3" t="s">
-        <v>111</v>
-      </c>
-      <c r="X3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AQ3" t="s">
         <v>121</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AU3" t="s">
         <v>122</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AW3" t="s">
         <v>123</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AY3" t="s">
         <v>124</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AZ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA3" t="s">
         <v>125</v>
       </c>
-      <c r="AY3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ3" t="s">
+      <c r="BB3" t="s">
         <v>126</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BC3" t="s">
         <v>127</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BD3" t="s">
         <v>128</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BE3" t="s">
         <v>129</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BF3" t="s">
         <v>130</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BG3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH3" t="s">
         <v>131</v>
       </c>
-      <c r="BF3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG3" t="s">
+      <c r="BJ3" t="s">
         <v>132</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BL3" t="s">
         <v>133</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BP3" t="s">
         <v>134</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BQ3" t="s">
         <v>135</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BR3" t="s">
         <v>136</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BU3" t="s">
         <v>137</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BV3" t="s">
         <v>138</v>
       </c>
-      <c r="BU3" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>97</v>
@@ -2040,135 +2064,138 @@
         <v>102</v>
       </c>
       <c r="J4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L4" t="s">
+        <v>391</v>
+      </c>
+      <c r="M4" t="s">
+        <v>388</v>
+      </c>
+      <c r="O4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" t="s">
+        <v>106</v>
+      </c>
+      <c r="T4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" t="s">
+        <v>108</v>
+      </c>
+      <c r="W4" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD4" t="s">
         <v>141</v>
       </c>
-      <c r="K4" t="s">
-        <v>362</v>
-      </c>
-      <c r="L4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>107</v>
-      </c>
-      <c r="S4" t="s">
-        <v>108</v>
-      </c>
-      <c r="U4" t="s">
-        <v>109</v>
-      </c>
-      <c r="V4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W4" t="s">
-        <v>111</v>
-      </c>
-      <c r="X4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
         <v>115</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AF4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>142</v>
       </c>
-      <c r="AD4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AM4" t="s">
         <v>143</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>144</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>145</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>146</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" t="s">
         <v>147</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AU4" t="s">
         <v>148</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AW4" t="s">
         <v>149</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AY4" t="s">
         <v>150</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AZ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA4" t="s">
         <v>151</v>
       </c>
-      <c r="AY4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ4" t="s">
+      <c r="BB4" t="s">
         <v>152</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BC4" t="s">
         <v>153</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BD4" t="s">
         <v>154</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BE4" t="s">
         <v>155</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BF4" t="s">
         <v>156</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BG4" t="s">
         <v>157</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>158</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>159</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BL4" t="s">
         <v>160</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BP4" t="s">
         <v>161</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BQ4" t="s">
         <v>162</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BR4" t="s">
         <v>163</v>
       </c>
-      <c r="BQ4" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
         <v>97</v>
@@ -2192,120 +2219,123 @@
         <v>102</v>
       </c>
       <c r="J5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" t="s">
+        <v>361</v>
+      </c>
+      <c r="L5" t="s">
+        <v>391</v>
+      </c>
+      <c r="M5" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q5" t="s">
         <v>166</v>
       </c>
-      <c r="K5" t="s">
-        <v>363</v>
-      </c>
-      <c r="L5" t="s">
-        <v>104</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V5" t="s">
         <v>167</v>
       </c>
-      <c r="Q5" t="s">
-        <v>107</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" t="s">
         <v>168</v>
       </c>
-      <c r="V5" t="s">
-        <v>110</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>169</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>170</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>171</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>153</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>158</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK5" t="s">
         <v>173</v>
       </c>
-      <c r="AB5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>152</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>153</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>154</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>155</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>157</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>158</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>159</v>
-      </c>
-      <c r="BI5" t="s">
+      <c r="BL5" t="s">
         <v>160</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BP5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>163</v>
+      </c>
+      <c r="BU5" t="s">
         <v>174</v>
       </c>
-      <c r="BK5" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>162</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>164</v>
-      </c>
-      <c r="BT5" t="s">
+      <c r="BV5" t="s">
         <v>175</v>
       </c>
-      <c r="BU5" t="s">
-        <v>176</v>
-      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>97</v>
@@ -2329,135 +2359,138 @@
         <v>102</v>
       </c>
       <c r="J6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" t="s">
+        <v>362</v>
+      </c>
+      <c r="L6" t="s">
+        <v>391</v>
+      </c>
+      <c r="M6" t="s">
+        <v>388</v>
+      </c>
+      <c r="O6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6" t="s">
+        <v>107</v>
+      </c>
+      <c r="V6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W6" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN6" t="s">
         <v>178</v>
       </c>
-      <c r="K6" t="s">
-        <v>364</v>
-      </c>
-      <c r="L6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>107</v>
-      </c>
-      <c r="S6" t="s">
-        <v>108</v>
-      </c>
-      <c r="U6" t="s">
-        <v>109</v>
-      </c>
-      <c r="V6" t="s">
-        <v>110</v>
-      </c>
-      <c r="W6" t="s">
-        <v>111</v>
-      </c>
-      <c r="X6" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AP6" t="s">
         <v>179</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AQ6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA6" t="s">
         <v>180</v>
       </c>
-      <c r="AP6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ6" t="s">
+      <c r="BB6" t="s">
         <v>181</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BC6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE6" t="s">
         <v>182</v>
       </c>
-      <c r="BB6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD6" t="s">
+      <c r="BF6" t="s">
         <v>183</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BG6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL6" t="s">
         <v>184</v>
       </c>
-      <c r="BF6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK6" t="s">
+      <c r="BM6" t="s">
         <v>185</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BP6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ6" t="s">
         <v>186</v>
       </c>
-      <c r="BO6" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP6" t="s">
+      <c r="BR6" t="s">
         <v>187</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BU6" t="s">
         <v>188</v>
       </c>
-      <c r="BT6" t="s">
+      <c r="BV6" t="s">
         <v>189</v>
       </c>
-      <c r="BU6" t="s">
-        <v>190</v>
-      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
@@ -2481,141 +2514,144 @@
         <v>102</v>
       </c>
       <c r="J7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" t="s">
+        <v>106</v>
+      </c>
+      <c r="T7" t="s">
+        <v>107</v>
+      </c>
+      <c r="V7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7" t="s">
+        <v>109</v>
+      </c>
+      <c r="X7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA7" t="s">
         <v>192</v>
       </c>
-      <c r="K7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>107</v>
-      </c>
-      <c r="S7" t="s">
-        <v>108</v>
-      </c>
-      <c r="U7" t="s">
-        <v>109</v>
-      </c>
-      <c r="V7" t="s">
-        <v>110</v>
-      </c>
-      <c r="W7" t="s">
-        <v>111</v>
-      </c>
-      <c r="X7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ7" t="s">
+      <c r="BB7" t="s">
         <v>193</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BC7" t="s">
         <v>194</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BD7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE7" t="s">
         <v>195</v>
       </c>
-      <c r="BC7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD7" t="s">
+      <c r="BF7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG7" t="s">
         <v>196</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BH7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BL7" t="s">
         <v>184</v>
       </c>
-      <c r="BF7" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ7" t="s">
+      <c r="BM7" t="s">
+        <v>185</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ7" t="s">
         <v>198</v>
       </c>
-      <c r="BK7" t="s">
-        <v>185</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>186</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>199</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>164</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>190</v>
+      <c r="BR7" t="s">
+        <v>163</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
         <v>79</v>
@@ -2624,135 +2660,138 @@
         <v>99</v>
       </c>
       <c r="G8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" t="s">
         <v>202</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>203</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>204</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>363</v>
+      </c>
+      <c r="L8" t="s">
+        <v>391</v>
+      </c>
+      <c r="M8" t="s">
         <v>205</v>
       </c>
-      <c r="K8" t="s">
-        <v>365</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="O8">
+        <v>-9999</v>
+      </c>
+      <c r="P8">
+        <v>-8888</v>
+      </c>
+      <c r="R8" t="s">
         <v>206</v>
       </c>
-      <c r="N8">
-        <v>-9999</v>
-      </c>
-      <c r="O8">
-        <v>-8888</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="T8" t="s">
         <v>207</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>208</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>209</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
         <v>210</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>211</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>212</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
         <v>213</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD8" t="s">
         <v>214</v>
       </c>
-      <c r="AB8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>215</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
         <v>216</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AJ8" t="s">
         <v>217</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AN8" t="s">
         <v>218</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AQ8" t="s">
         <v>219</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AW8" t="s">
         <v>220</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AY8" t="s">
         <v>221</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="BA8" t="s">
         <v>222</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BB8" t="s">
         <v>223</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BC8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL8" t="s">
         <v>224</v>
       </c>
-      <c r="BB8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK8" t="s">
+      <c r="BM8" t="s">
         <v>225</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BP8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW8" t="s">
         <v>226</v>
       </c>
-      <c r="BO8" t="s">
-        <v>135</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>137</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>227</v>
-      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
         <v>80</v>
@@ -2761,156 +2800,159 @@
         <v>99</v>
       </c>
       <c r="G9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" t="s">
         <v>230</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>231</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
+        <v>365</v>
+      </c>
+      <c r="L9" t="s">
+        <v>391</v>
+      </c>
+      <c r="M9" t="s">
+        <v>388</v>
+      </c>
+      <c r="O9">
+        <v>-999</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>106</v>
+      </c>
+      <c r="T9" t="s">
         <v>232</v>
       </c>
-      <c r="K9" t="s">
-        <v>367</v>
-      </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N9">
-        <v>-999</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>107</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
+        <v>110</v>
+      </c>
+      <c r="W9" t="s">
         <v>233</v>
       </c>
-      <c r="U9" t="s">
-        <v>111</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE9" t="s">
         <v>234</v>
       </c>
-      <c r="W9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X9" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AF9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>235</v>
       </c>
-      <c r="AE9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AL9" t="s">
         <v>236</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AM9" t="s">
         <v>237</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AN9" t="s">
         <v>238</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AQ9" t="s">
         <v>239</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AR9" t="s">
         <v>240</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AU9" t="s">
         <v>241</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AW9" t="s">
         <v>242</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AX9" t="s">
         <v>243</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AY9" t="s">
         <v>244</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AZ9" t="s">
         <v>245</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="BA9" t="s">
         <v>246</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BB9" t="s">
         <v>247</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BC9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK9" t="s">
         <v>248</v>
       </c>
-      <c r="BB9" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ9" t="s">
+      <c r="BL9" t="s">
         <v>249</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BO9" t="s">
         <v>250</v>
       </c>
-      <c r="BN9" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO9" t="s">
+      <c r="BP9" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ9" t="s">
         <v>135</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="BR9" t="s">
         <v>136</v>
       </c>
-      <c r="BQ9" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT9" t="s">
+      <c r="BU9" t="s">
         <v>70</v>
       </c>
-      <c r="BU9" t="s">
+      <c r="BV9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
         <v>81</v>
@@ -2919,156 +2961,159 @@
         <v>99</v>
       </c>
       <c r="G10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" t="s">
         <v>253</v>
       </c>
-      <c r="H10" t="s">
-        <v>231</v>
-      </c>
-      <c r="I10" t="s">
-        <v>254</v>
-      </c>
       <c r="K10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
-      </c>
-      <c r="N10">
+        <v>391</v>
+      </c>
+      <c r="M10" t="s">
+        <v>388</v>
+      </c>
+      <c r="O10">
         <v>-999</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
-        <v>107</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="R10" t="s">
+        <v>106</v>
+      </c>
+      <c r="T10" t="s">
+        <v>232</v>
+      </c>
+      <c r="V10" t="s">
+        <v>110</v>
+      </c>
+      <c r="W10" t="s">
         <v>233</v>
       </c>
-      <c r="U10" t="s">
-        <v>111</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE10" t="s">
         <v>234</v>
       </c>
-      <c r="W10" t="s">
-        <v>111</v>
-      </c>
-      <c r="X10" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>235</v>
       </c>
-      <c r="AE10" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AL10" t="s">
         <v>236</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AM10" t="s">
         <v>237</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AN10" t="s">
         <v>238</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AQ10" t="s">
         <v>239</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AR10" t="s">
         <v>240</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AU10" t="s">
         <v>241</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AW10" t="s">
         <v>242</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AX10" t="s">
         <v>243</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AY10" t="s">
         <v>244</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AZ10" t="s">
         <v>245</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="BA10" t="s">
         <v>246</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BB10" t="s">
         <v>247</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BC10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK10" t="s">
         <v>248</v>
       </c>
-      <c r="BB10" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ10" t="s">
+      <c r="BL10" t="s">
         <v>249</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BO10" t="s">
         <v>250</v>
       </c>
-      <c r="BN10" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO10" t="s">
+      <c r="BP10" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ10" t="s">
         <v>135</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BR10" t="s">
         <v>136</v>
       </c>
-      <c r="BQ10" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT10" t="s">
+      <c r="BU10" t="s">
         <v>70</v>
       </c>
-      <c r="BU10" t="s">
+      <c r="BV10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
         <v>82</v>
@@ -3077,156 +3122,159 @@
         <v>99</v>
       </c>
       <c r="G11" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" t="s">
         <v>256</v>
       </c>
-      <c r="H11" t="s">
-        <v>231</v>
-      </c>
-      <c r="I11" t="s">
-        <v>257</v>
-      </c>
       <c r="K11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
-      </c>
-      <c r="N11">
+        <v>391</v>
+      </c>
+      <c r="M11" t="s">
+        <v>388</v>
+      </c>
+      <c r="O11">
         <v>-999</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0</v>
       </c>
-      <c r="Q11" t="s">
-        <v>107</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="R11" t="s">
+        <v>106</v>
+      </c>
+      <c r="T11" t="s">
+        <v>232</v>
+      </c>
+      <c r="V11" t="s">
+        <v>110</v>
+      </c>
+      <c r="W11" t="s">
         <v>233</v>
       </c>
-      <c r="U11" t="s">
-        <v>111</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
-      <c r="W11" t="s">
-        <v>111</v>
-      </c>
-      <c r="X11" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>235</v>
       </c>
-      <c r="AE11" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AL11" t="s">
         <v>236</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AM11" t="s">
         <v>237</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AN11" t="s">
         <v>238</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AQ11" t="s">
         <v>239</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AR11" t="s">
         <v>240</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AU11" t="s">
         <v>241</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AW11" t="s">
         <v>242</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AX11" t="s">
         <v>243</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AY11" t="s">
         <v>244</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AZ11" t="s">
         <v>245</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="BA11" t="s">
         <v>246</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BB11" t="s">
         <v>247</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BC11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK11" t="s">
         <v>248</v>
       </c>
-      <c r="BB11" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ11" t="s">
+      <c r="BL11" t="s">
         <v>249</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BO11" t="s">
         <v>250</v>
       </c>
-      <c r="BN11" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO11" t="s">
+      <c r="BP11" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ11" t="s">
         <v>135</v>
       </c>
-      <c r="BP11" t="s">
+      <c r="BR11" t="s">
         <v>136</v>
       </c>
-      <c r="BQ11" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT11" t="s">
+      <c r="BU11" t="s">
         <v>70</v>
       </c>
-      <c r="BU11" t="s">
+      <c r="BV11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
         <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
@@ -3235,156 +3283,159 @@
         <v>99</v>
       </c>
       <c r="G12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" t="s">
         <v>253</v>
       </c>
-      <c r="H12" t="s">
-        <v>231</v>
-      </c>
-      <c r="I12" t="s">
-        <v>254</v>
-      </c>
       <c r="K12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L12" t="s">
-        <v>104</v>
-      </c>
-      <c r="N12">
+        <v>391</v>
+      </c>
+      <c r="M12" t="s">
+        <v>388</v>
+      </c>
+      <c r="O12">
         <v>-999</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0</v>
       </c>
-      <c r="Q12" t="s">
-        <v>107</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="R12" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12" t="s">
+        <v>232</v>
+      </c>
+      <c r="V12" t="s">
+        <v>110</v>
+      </c>
+      <c r="W12" t="s">
         <v>233</v>
       </c>
-      <c r="U12" t="s">
-        <v>111</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE12" t="s">
         <v>234</v>
       </c>
-      <c r="W12" t="s">
-        <v>111</v>
-      </c>
-      <c r="X12" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>235</v>
       </c>
-      <c r="AE12" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AL12" t="s">
         <v>236</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AM12" t="s">
         <v>237</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AN12" t="s">
         <v>238</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AQ12" t="s">
         <v>239</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AR12" t="s">
         <v>240</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AU12" t="s">
         <v>241</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AW12" t="s">
         <v>242</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AX12" t="s">
         <v>243</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AY12" t="s">
         <v>244</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AZ12" t="s">
         <v>245</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="BA12" t="s">
         <v>246</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BB12" t="s">
         <v>247</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BC12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK12" t="s">
         <v>248</v>
       </c>
-      <c r="BB12" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ12" t="s">
+      <c r="BL12" t="s">
         <v>249</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BO12" t="s">
         <v>250</v>
       </c>
-      <c r="BN12" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO12" t="s">
+      <c r="BP12" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ12" t="s">
         <v>135</v>
       </c>
-      <c r="BP12" t="s">
+      <c r="BR12" t="s">
         <v>136</v>
       </c>
-      <c r="BQ12" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT12" t="s">
+      <c r="BU12" t="s">
         <v>70</v>
       </c>
-      <c r="BU12" t="s">
+      <c r="BV12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
         <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
         <v>84</v>
@@ -3393,159 +3444,162 @@
         <v>99</v>
       </c>
       <c r="G13" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" t="s">
         <v>260</v>
       </c>
-      <c r="H13" t="s">
-        <v>231</v>
-      </c>
-      <c r="I13" t="s">
-        <v>261</v>
-      </c>
       <c r="K13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L13" t="s">
-        <v>104</v>
-      </c>
-      <c r="N13">
+        <v>391</v>
+      </c>
+      <c r="M13" t="s">
+        <v>388</v>
+      </c>
+      <c r="O13">
         <v>-999</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0</v>
       </c>
-      <c r="P13" t="s">
-        <v>167</v>
-      </c>
       <c r="Q13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S13" t="s">
+        <v>166</v>
+      </c>
+      <c r="R13" t="s">
+        <v>106</v>
+      </c>
+      <c r="T13" t="s">
+        <v>232</v>
+      </c>
+      <c r="V13" t="s">
+        <v>110</v>
+      </c>
+      <c r="W13" t="s">
         <v>233</v>
       </c>
-      <c r="U13" t="s">
-        <v>111</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE13" t="s">
         <v>234</v>
       </c>
-      <c r="W13" t="s">
-        <v>111</v>
-      </c>
-      <c r="X13" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>235</v>
       </c>
-      <c r="AE13" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI13" t="s">
+      <c r="AL13" t="s">
         <v>236</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AM13" t="s">
         <v>237</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AN13" t="s">
         <v>238</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AQ13" t="s">
         <v>239</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AR13" t="s">
         <v>240</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AU13" t="s">
         <v>241</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AW13" t="s">
         <v>242</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AX13" t="s">
         <v>243</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AY13" t="s">
         <v>244</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AZ13" t="s">
         <v>245</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="BA13" t="s">
         <v>246</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BB13" t="s">
         <v>247</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BC13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK13" t="s">
         <v>248</v>
       </c>
-      <c r="BB13" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ13" t="s">
+      <c r="BL13" t="s">
         <v>249</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BO13" t="s">
         <v>250</v>
       </c>
-      <c r="BN13" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO13" t="s">
+      <c r="BP13" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ13" t="s">
         <v>135</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BR13" t="s">
         <v>136</v>
       </c>
-      <c r="BQ13" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT13" t="s">
+      <c r="BU13" t="s">
         <v>70</v>
       </c>
-      <c r="BU13" t="s">
+      <c r="BV13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
         <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" t="s">
         <v>85</v>
@@ -3554,156 +3608,159 @@
         <v>99</v>
       </c>
       <c r="G14" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" t="s">
         <v>263</v>
       </c>
-      <c r="H14" t="s">
-        <v>231</v>
-      </c>
-      <c r="I14" t="s">
-        <v>264</v>
-      </c>
       <c r="K14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14">
+        <v>391</v>
+      </c>
+      <c r="M14" t="s">
+        <v>388</v>
+      </c>
+      <c r="O14">
         <v>-999</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14" t="s">
-        <v>107</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="R14" t="s">
+        <v>106</v>
+      </c>
+      <c r="T14" t="s">
+        <v>232</v>
+      </c>
+      <c r="V14" t="s">
+        <v>110</v>
+      </c>
+      <c r="W14" t="s">
         <v>233</v>
       </c>
-      <c r="U14" t="s">
-        <v>111</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE14" t="s">
         <v>234</v>
       </c>
-      <c r="W14" t="s">
-        <v>111</v>
-      </c>
-      <c r="X14" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>235</v>
       </c>
-      <c r="AE14" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI14" t="s">
+      <c r="AL14" t="s">
         <v>236</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AM14" t="s">
         <v>237</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AN14" t="s">
         <v>238</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AQ14" t="s">
         <v>239</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AR14" t="s">
         <v>240</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AU14" t="s">
         <v>241</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AW14" t="s">
         <v>242</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AX14" t="s">
         <v>243</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AY14" t="s">
         <v>244</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AZ14" t="s">
         <v>245</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="BA14" t="s">
         <v>246</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BB14" t="s">
         <v>247</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BC14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK14" t="s">
         <v>248</v>
       </c>
-      <c r="BB14" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ14" t="s">
+      <c r="BL14" t="s">
         <v>249</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BO14" t="s">
         <v>250</v>
       </c>
-      <c r="BN14" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO14" t="s">
+      <c r="BP14" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ14" t="s">
         <v>135</v>
       </c>
-      <c r="BP14" t="s">
+      <c r="BR14" t="s">
         <v>136</v>
       </c>
-      <c r="BQ14" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT14" t="s">
+      <c r="BU14" t="s">
         <v>70</v>
       </c>
-      <c r="BU14" t="s">
+      <c r="BV14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" t="s">
         <v>86</v>
@@ -3712,153 +3769,156 @@
         <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L15" t="s">
-        <v>104</v>
-      </c>
-      <c r="N15">
+        <v>391</v>
+      </c>
+      <c r="M15" t="s">
+        <v>388</v>
+      </c>
+      <c r="O15">
         <v>-999</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0</v>
       </c>
-      <c r="Q15" t="s">
-        <v>107</v>
-      </c>
-      <c r="U15" t="s">
-        <v>111</v>
+      <c r="R15" t="s">
+        <v>106</v>
       </c>
       <c r="V15" t="s">
+        <v>110</v>
+      </c>
+      <c r="W15" t="s">
+        <v>233</v>
+      </c>
+      <c r="X15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE15" t="s">
         <v>234</v>
       </c>
-      <c r="W15" t="s">
-        <v>111</v>
-      </c>
-      <c r="X15" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>235</v>
       </c>
-      <c r="AE15" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="AL15" t="s">
         <v>236</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AM15" t="s">
         <v>237</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AN15" t="s">
         <v>238</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AQ15" t="s">
         <v>239</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AR15" t="s">
         <v>240</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AU15" t="s">
         <v>241</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AW15" t="s">
         <v>242</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AX15" t="s">
         <v>243</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AY15" t="s">
         <v>244</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AZ15" t="s">
         <v>245</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="BA15" t="s">
         <v>246</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BB15" t="s">
         <v>247</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BC15" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK15" t="s">
         <v>248</v>
       </c>
-      <c r="BB15" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ15" t="s">
+      <c r="BL15" t="s">
         <v>249</v>
       </c>
-      <c r="BK15" t="s">
+      <c r="BO15" t="s">
         <v>250</v>
       </c>
-      <c r="BN15" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO15" t="s">
+      <c r="BP15" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ15" t="s">
         <v>135</v>
       </c>
-      <c r="BP15" t="s">
+      <c r="BR15" t="s">
         <v>136</v>
       </c>
-      <c r="BQ15" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT15" t="s">
+      <c r="BU15" t="s">
         <v>70</v>
       </c>
-      <c r="BU15" t="s">
+      <c r="BV15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s">
         <v>87</v>
@@ -3867,156 +3927,159 @@
         <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16" t="s">
         <v>231</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
+        <v>372</v>
+      </c>
+      <c r="L16" t="s">
+        <v>391</v>
+      </c>
+      <c r="M16" t="s">
+        <v>388</v>
+      </c>
+      <c r="O16">
+        <v>-999</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>106</v>
+      </c>
+      <c r="T16" t="s">
         <v>232</v>
       </c>
-      <c r="K16" t="s">
-        <v>374</v>
-      </c>
-      <c r="L16" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16">
-        <v>-999</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>107</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
+        <v>110</v>
+      </c>
+      <c r="W16" t="s">
         <v>233</v>
       </c>
-      <c r="U16" t="s">
-        <v>111</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE16" t="s">
         <v>234</v>
       </c>
-      <c r="W16" t="s">
-        <v>111</v>
-      </c>
-      <c r="X16" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>235</v>
       </c>
-      <c r="AE16" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI16" t="s">
+      <c r="AL16" t="s">
         <v>236</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AM16" t="s">
         <v>237</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AN16" t="s">
         <v>238</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AQ16" t="s">
         <v>239</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AR16" t="s">
         <v>240</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AU16" t="s">
         <v>241</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AW16" t="s">
         <v>242</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AX16" t="s">
         <v>243</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AY16" t="s">
         <v>244</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AZ16" t="s">
         <v>245</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="BA16" t="s">
         <v>246</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BB16" t="s">
         <v>247</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BC16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK16" t="s">
         <v>248</v>
       </c>
-      <c r="BB16" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ16" t="s">
+      <c r="BL16" t="s">
         <v>249</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BO16" t="s">
         <v>250</v>
       </c>
-      <c r="BN16" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO16" t="s">
+      <c r="BP16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ16" t="s">
         <v>135</v>
       </c>
-      <c r="BP16" t="s">
+      <c r="BR16" t="s">
         <v>136</v>
       </c>
-      <c r="BQ16" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT16" t="s">
+      <c r="BU16" t="s">
         <v>70</v>
       </c>
-      <c r="BU16" t="s">
+      <c r="BV16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C17" t="s">
         <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
@@ -4025,156 +4088,159 @@
         <v>99</v>
       </c>
       <c r="G17" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" t="s">
+        <v>230</v>
+      </c>
+      <c r="I17" t="s">
         <v>268</v>
       </c>
-      <c r="H17" t="s">
-        <v>231</v>
-      </c>
-      <c r="I17" t="s">
-        <v>269</v>
-      </c>
       <c r="K17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
-      </c>
-      <c r="N17">
+        <v>391</v>
+      </c>
+      <c r="M17" t="s">
+        <v>388</v>
+      </c>
+      <c r="O17">
         <v>-999</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0</v>
       </c>
-      <c r="Q17" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="R17" t="s">
+        <v>106</v>
+      </c>
+      <c r="T17" t="s">
+        <v>232</v>
+      </c>
+      <c r="V17" t="s">
+        <v>110</v>
+      </c>
+      <c r="W17" t="s">
         <v>233</v>
       </c>
-      <c r="U17" t="s">
-        <v>111</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="X17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE17" t="s">
         <v>234</v>
       </c>
-      <c r="W17" t="s">
-        <v>111</v>
-      </c>
-      <c r="X17" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>235</v>
       </c>
-      <c r="AE17" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI17" t="s">
+      <c r="AL17" t="s">
         <v>236</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AM17" t="s">
         <v>237</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AN17" t="s">
         <v>238</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AQ17" t="s">
         <v>239</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AR17" t="s">
         <v>240</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AU17" t="s">
         <v>241</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AW17" t="s">
         <v>242</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AX17" t="s">
         <v>243</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AY17" t="s">
         <v>244</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AZ17" t="s">
         <v>245</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="BA17" t="s">
         <v>246</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BB17" t="s">
         <v>247</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BC17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK17" t="s">
         <v>248</v>
       </c>
-      <c r="BB17" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ17" t="s">
+      <c r="BL17" t="s">
         <v>249</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BO17" t="s">
         <v>250</v>
       </c>
-      <c r="BN17" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO17" t="s">
+      <c r="BP17" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ17" t="s">
         <v>135</v>
       </c>
-      <c r="BP17" t="s">
+      <c r="BR17" t="s">
         <v>136</v>
       </c>
-      <c r="BQ17" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT17" t="s">
+      <c r="BU17" t="s">
         <v>70</v>
       </c>
-      <c r="BU17" t="s">
+      <c r="BV17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" t="s">
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
         <v>89</v>
@@ -4183,156 +4249,159 @@
         <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L18" t="s">
-        <v>104</v>
-      </c>
-      <c r="N18">
+        <v>391</v>
+      </c>
+      <c r="M18" t="s">
+        <v>388</v>
+      </c>
+      <c r="O18">
         <v>-999</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q18" t="s">
-        <v>107</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="R18" t="s">
+        <v>106</v>
+      </c>
+      <c r="T18" t="s">
+        <v>232</v>
+      </c>
+      <c r="V18" t="s">
+        <v>110</v>
+      </c>
+      <c r="W18" t="s">
         <v>233</v>
       </c>
-      <c r="U18" t="s">
-        <v>111</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="X18" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE18" t="s">
         <v>234</v>
       </c>
-      <c r="W18" t="s">
-        <v>111</v>
-      </c>
-      <c r="X18" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="AF18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>235</v>
       </c>
-      <c r="AE18" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI18" t="s">
+      <c r="AL18" t="s">
         <v>236</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AM18" t="s">
         <v>237</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AN18" t="s">
         <v>238</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AQ18" t="s">
         <v>239</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AR18" t="s">
         <v>240</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AU18" t="s">
         <v>241</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AW18" t="s">
         <v>242</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AX18" t="s">
         <v>243</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AY18" t="s">
         <v>244</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AZ18" t="s">
         <v>245</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="BA18" t="s">
         <v>246</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BB18" t="s">
         <v>247</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BC18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK18" t="s">
         <v>248</v>
       </c>
-      <c r="BB18" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ18" t="s">
+      <c r="BL18" t="s">
         <v>249</v>
       </c>
-      <c r="BK18" t="s">
+      <c r="BO18" t="s">
         <v>250</v>
       </c>
-      <c r="BN18" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO18" t="s">
+      <c r="BP18" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ18" t="s">
         <v>135</v>
       </c>
-      <c r="BP18" t="s">
+      <c r="BR18" t="s">
         <v>136</v>
       </c>
-      <c r="BQ18" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT18" t="s">
+      <c r="BU18" t="s">
         <v>70</v>
       </c>
-      <c r="BU18" t="s">
+      <c r="BV18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" t="s">
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
         <v>90</v>
@@ -4341,156 +4410,159 @@
         <v>99</v>
       </c>
       <c r="G19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H19" t="s">
+        <v>230</v>
+      </c>
+      <c r="I19" t="s">
         <v>273</v>
       </c>
-      <c r="H19" t="s">
-        <v>231</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
+        <v>375</v>
+      </c>
+      <c r="L19" t="s">
+        <v>391</v>
+      </c>
+      <c r="M19" t="s">
+        <v>388</v>
+      </c>
+      <c r="O19">
+        <v>-999</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>106</v>
+      </c>
+      <c r="T19" t="s">
+        <v>232</v>
+      </c>
+      <c r="V19" t="s">
+        <v>110</v>
+      </c>
+      <c r="W19" t="s">
         <v>274</v>
       </c>
-      <c r="K19" t="s">
-        <v>377</v>
-      </c>
-      <c r="L19" t="s">
-        <v>104</v>
-      </c>
-      <c r="N19">
-        <v>-999</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>107</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="X19" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y19" t="s">
         <v>233</v>
       </c>
-      <c r="U19" t="s">
-        <v>111</v>
-      </c>
-      <c r="V19" t="s">
-        <v>275</v>
-      </c>
-      <c r="W19" t="s">
-        <v>111</v>
-      </c>
-      <c r="X19" t="s">
+      <c r="AA19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE19" t="s">
         <v>234</v>
       </c>
-      <c r="Z19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="AF19" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>235</v>
       </c>
-      <c r="AE19" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI19" t="s">
+      <c r="AL19" t="s">
         <v>236</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AM19" t="s">
         <v>237</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AN19" t="s">
         <v>238</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AQ19" t="s">
         <v>239</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AR19" t="s">
         <v>240</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AU19" t="s">
         <v>241</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AW19" t="s">
         <v>242</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AX19" t="s">
         <v>243</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AY19" t="s">
         <v>244</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AZ19" t="s">
         <v>245</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="BA19" t="s">
         <v>246</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BB19" t="s">
         <v>247</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BC19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK19" t="s">
         <v>248</v>
       </c>
-      <c r="BB19" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ19" t="s">
+      <c r="BL19" t="s">
         <v>249</v>
       </c>
-      <c r="BK19" t="s">
+      <c r="BO19" t="s">
         <v>250</v>
       </c>
-      <c r="BN19" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO19" t="s">
+      <c r="BP19" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ19" t="s">
         <v>135</v>
       </c>
-      <c r="BP19" t="s">
+      <c r="BR19" t="s">
         <v>136</v>
       </c>
-      <c r="BQ19" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT19" t="s">
+      <c r="BU19" t="s">
         <v>70</v>
       </c>
-      <c r="BU19" t="s">
+      <c r="BV19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C20" t="s">
         <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
         <v>91</v>
@@ -4499,156 +4571,159 @@
         <v>99</v>
       </c>
       <c r="G20" t="s">
+        <v>276</v>
+      </c>
+      <c r="H20" t="s">
+        <v>230</v>
+      </c>
+      <c r="I20" t="s">
         <v>277</v>
       </c>
-      <c r="H20" t="s">
-        <v>231</v>
-      </c>
-      <c r="I20" t="s">
-        <v>278</v>
-      </c>
       <c r="K20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L20" t="s">
-        <v>104</v>
-      </c>
-      <c r="N20">
+        <v>391</v>
+      </c>
+      <c r="M20" t="s">
+        <v>388</v>
+      </c>
+      <c r="O20">
         <v>-999</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20" t="s">
-        <v>107</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="R20" t="s">
+        <v>106</v>
+      </c>
+      <c r="T20" t="s">
+        <v>232</v>
+      </c>
+      <c r="V20" t="s">
+        <v>110</v>
+      </c>
+      <c r="W20" t="s">
+        <v>274</v>
+      </c>
+      <c r="X20" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y20" t="s">
         <v>233</v>
       </c>
-      <c r="U20" t="s">
-        <v>111</v>
-      </c>
-      <c r="V20" t="s">
-        <v>275</v>
-      </c>
-      <c r="W20" t="s">
-        <v>111</v>
-      </c>
-      <c r="X20" t="s">
+      <c r="AA20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE20" t="s">
         <v>234</v>
       </c>
-      <c r="Z20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="AF20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>235</v>
       </c>
-      <c r="AE20" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI20" t="s">
+      <c r="AL20" t="s">
         <v>236</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AM20" t="s">
         <v>237</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AN20" t="s">
         <v>238</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AQ20" t="s">
         <v>239</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AR20" t="s">
         <v>240</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AU20" t="s">
         <v>241</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AW20" t="s">
         <v>242</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AX20" t="s">
         <v>243</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AY20" t="s">
         <v>244</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AZ20" t="s">
         <v>245</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="BA20" t="s">
         <v>246</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BB20" t="s">
         <v>247</v>
       </c>
-      <c r="BA20" t="s">
+      <c r="BC20" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK20" t="s">
         <v>248</v>
       </c>
-      <c r="BB20" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ20" t="s">
+      <c r="BL20" t="s">
         <v>249</v>
       </c>
-      <c r="BK20" t="s">
+      <c r="BO20" t="s">
         <v>250</v>
       </c>
-      <c r="BN20" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO20" t="s">
+      <c r="BP20" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ20" t="s">
         <v>135</v>
       </c>
-      <c r="BP20" t="s">
+      <c r="BR20" t="s">
         <v>136</v>
       </c>
-      <c r="BQ20" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT20" t="s">
+      <c r="BU20" t="s">
         <v>70</v>
       </c>
-      <c r="BU20" t="s">
+      <c r="BV20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
         <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" t="s">
         <v>92</v>
@@ -4657,156 +4732,159 @@
         <v>99</v>
       </c>
       <c r="G21" t="s">
+        <v>279</v>
+      </c>
+      <c r="H21" t="s">
+        <v>230</v>
+      </c>
+      <c r="I21" t="s">
         <v>280</v>
       </c>
-      <c r="H21" t="s">
-        <v>231</v>
-      </c>
-      <c r="I21" t="s">
-        <v>281</v>
-      </c>
       <c r="K21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L21" t="s">
-        <v>104</v>
-      </c>
-      <c r="N21">
+        <v>391</v>
+      </c>
+      <c r="M21" t="s">
+        <v>388</v>
+      </c>
+      <c r="O21">
         <v>-999</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21" t="s">
-        <v>107</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="R21" t="s">
+        <v>106</v>
+      </c>
+      <c r="T21" t="s">
+        <v>232</v>
+      </c>
+      <c r="V21" t="s">
+        <v>110</v>
+      </c>
+      <c r="W21" t="s">
+        <v>274</v>
+      </c>
+      <c r="X21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y21" t="s">
         <v>233</v>
       </c>
-      <c r="U21" t="s">
-        <v>111</v>
-      </c>
-      <c r="V21" t="s">
-        <v>275</v>
-      </c>
-      <c r="W21" t="s">
-        <v>111</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="AA21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE21" t="s">
         <v>234</v>
       </c>
-      <c r="Z21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD21" t="s">
+      <c r="AF21" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>235</v>
       </c>
-      <c r="AE21" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="AL21" t="s">
         <v>236</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AM21" t="s">
         <v>237</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AN21" t="s">
         <v>238</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AQ21" t="s">
         <v>239</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AR21" t="s">
         <v>240</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AU21" t="s">
         <v>241</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AW21" t="s">
         <v>242</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AX21" t="s">
         <v>243</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AY21" t="s">
         <v>244</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="AZ21" t="s">
         <v>245</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="BA21" t="s">
         <v>246</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BB21" t="s">
         <v>247</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BC21" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK21" t="s">
         <v>248</v>
       </c>
-      <c r="BB21" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ21" t="s">
+      <c r="BL21" t="s">
         <v>249</v>
       </c>
-      <c r="BK21" t="s">
+      <c r="BO21" t="s">
         <v>250</v>
       </c>
-      <c r="BN21" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO21" t="s">
+      <c r="BP21" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ21" t="s">
         <v>135</v>
       </c>
-      <c r="BP21" t="s">
+      <c r="BR21" t="s">
         <v>136</v>
       </c>
-      <c r="BQ21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT21" t="s">
+      <c r="BU21" t="s">
         <v>70</v>
       </c>
-      <c r="BU21" t="s">
+      <c r="BV21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C22" t="s">
         <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" t="s">
         <v>93</v>
@@ -4815,156 +4893,159 @@
         <v>99</v>
       </c>
       <c r="G22" t="s">
+        <v>282</v>
+      </c>
+      <c r="H22" t="s">
+        <v>230</v>
+      </c>
+      <c r="I22" t="s">
         <v>283</v>
       </c>
-      <c r="H22" t="s">
-        <v>231</v>
-      </c>
-      <c r="I22" t="s">
-        <v>284</v>
-      </c>
       <c r="K22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L22" t="s">
-        <v>104</v>
-      </c>
-      <c r="N22">
+        <v>391</v>
+      </c>
+      <c r="M22" t="s">
+        <v>388</v>
+      </c>
+      <c r="O22">
         <v>-999</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0</v>
       </c>
-      <c r="Q22" t="s">
-        <v>107</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="R22" t="s">
+        <v>106</v>
+      </c>
+      <c r="T22" t="s">
+        <v>232</v>
+      </c>
+      <c r="V22" t="s">
+        <v>110</v>
+      </c>
+      <c r="W22" t="s">
+        <v>274</v>
+      </c>
+      <c r="X22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y22" t="s">
         <v>233</v>
       </c>
-      <c r="U22" t="s">
-        <v>111</v>
-      </c>
-      <c r="V22" t="s">
-        <v>275</v>
-      </c>
-      <c r="W22" t="s">
-        <v>111</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="AA22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE22" t="s">
         <v>234</v>
       </c>
-      <c r="Z22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD22" t="s">
+      <c r="AF22" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>235</v>
       </c>
-      <c r="AE22" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI22" t="s">
+      <c r="AL22" t="s">
         <v>236</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AM22" t="s">
         <v>237</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AN22" t="s">
         <v>238</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AQ22" t="s">
         <v>239</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AR22" t="s">
         <v>240</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AU22" t="s">
         <v>241</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AW22" t="s">
         <v>242</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AX22" t="s">
         <v>243</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AY22" t="s">
         <v>244</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AZ22" t="s">
         <v>245</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="BA22" t="s">
         <v>246</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BB22" t="s">
         <v>247</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BC22" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK22" t="s">
         <v>248</v>
       </c>
-      <c r="BB22" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ22" t="s">
+      <c r="BL22" t="s">
         <v>249</v>
       </c>
-      <c r="BK22" t="s">
+      <c r="BO22" t="s">
         <v>250</v>
       </c>
-      <c r="BN22" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO22" t="s">
+      <c r="BP22" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ22" t="s">
         <v>135</v>
       </c>
-      <c r="BP22" t="s">
+      <c r="BR22" t="s">
         <v>136</v>
       </c>
-      <c r="BQ22" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT22" t="s">
+      <c r="BU22" t="s">
         <v>70</v>
       </c>
-      <c r="BU22" t="s">
+      <c r="BV22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C23" t="s">
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
         <v>94</v>
@@ -4973,159 +5054,162 @@
         <v>99</v>
       </c>
       <c r="G23" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" t="s">
+        <v>230</v>
+      </c>
+      <c r="I23" t="s">
         <v>283</v>
       </c>
-      <c r="H23" t="s">
-        <v>231</v>
-      </c>
-      <c r="I23" t="s">
-        <v>284</v>
-      </c>
       <c r="K23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L23" t="s">
-        <v>104</v>
-      </c>
-      <c r="N23">
+        <v>391</v>
+      </c>
+      <c r="M23" t="s">
+        <v>388</v>
+      </c>
+      <c r="O23">
         <v>-999</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0</v>
       </c>
-      <c r="P23" t="s">
-        <v>167</v>
-      </c>
       <c r="Q23" t="s">
-        <v>107</v>
-      </c>
-      <c r="S23" t="s">
+        <v>166</v>
+      </c>
+      <c r="R23" t="s">
+        <v>106</v>
+      </c>
+      <c r="T23" t="s">
+        <v>232</v>
+      </c>
+      <c r="V23" t="s">
+        <v>110</v>
+      </c>
+      <c r="W23" t="s">
+        <v>274</v>
+      </c>
+      <c r="X23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y23" t="s">
         <v>233</v>
       </c>
-      <c r="U23" t="s">
-        <v>111</v>
-      </c>
-      <c r="V23" t="s">
-        <v>275</v>
-      </c>
-      <c r="W23" t="s">
-        <v>111</v>
-      </c>
-      <c r="X23" t="s">
+      <c r="AA23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE23" t="s">
         <v>234</v>
       </c>
-      <c r="Z23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD23" t="s">
+      <c r="AF23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>235</v>
       </c>
-      <c r="AE23" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="AL23" t="s">
         <v>236</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AM23" t="s">
         <v>237</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AN23" t="s">
         <v>238</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AQ23" t="s">
         <v>239</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AR23" t="s">
         <v>240</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AU23" t="s">
         <v>241</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AW23" t="s">
         <v>242</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AX23" t="s">
         <v>243</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AY23" t="s">
         <v>244</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AZ23" t="s">
         <v>245</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="BA23" t="s">
         <v>246</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BB23" t="s">
         <v>247</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BC23" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK23" t="s">
         <v>248</v>
       </c>
-      <c r="BB23" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ23" t="s">
+      <c r="BL23" t="s">
         <v>249</v>
       </c>
-      <c r="BK23" t="s">
+      <c r="BO23" t="s">
         <v>250</v>
       </c>
-      <c r="BN23" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO23" t="s">
+      <c r="BP23" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ23" t="s">
         <v>135</v>
       </c>
-      <c r="BP23" t="s">
+      <c r="BR23" t="s">
         <v>136</v>
       </c>
-      <c r="BQ23" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT23" t="s">
+      <c r="BU23" t="s">
         <v>70</v>
       </c>
-      <c r="BU23" t="s">
+      <c r="BV23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C24" t="s">
         <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E24" s="1">
         <v>320619930325</v>
@@ -5134,141 +5218,144 @@
         <v>99</v>
       </c>
       <c r="G24" t="s">
+        <v>287</v>
+      </c>
+      <c r="I24" t="s">
         <v>288</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>289</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>380</v>
+      </c>
+      <c r="L24" t="s">
+        <v>391</v>
+      </c>
+      <c r="M24" t="s">
+        <v>388</v>
+      </c>
+      <c r="O24">
+        <v>-999</v>
+      </c>
+      <c r="Q24" t="s">
         <v>290</v>
       </c>
-      <c r="K24" t="s">
-        <v>382</v>
-      </c>
-      <c r="L24" t="s">
-        <v>104</v>
-      </c>
-      <c r="N24">
-        <v>-999</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
+        <v>206</v>
+      </c>
+      <c r="T24" t="s">
         <v>291</v>
       </c>
-      <c r="Q24" t="s">
-        <v>207</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="V24" t="s">
         <v>292</v>
-      </c>
-      <c r="U24" t="s">
-        <v>293</v>
-      </c>
-      <c r="V24" t="s">
-        <v>294</v>
       </c>
       <c r="W24" t="s">
         <v>293</v>
       </c>
       <c r="X24" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD24" t="s">
         <v>294</v>
       </c>
-      <c r="Z24" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC24" t="s">
+      <c r="AE24" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL24" t="s">
         <v>295</v>
       </c>
-      <c r="AD24" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK24" t="s">
+      <c r="AM24" t="s">
         <v>296</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AN24" t="s">
         <v>297</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AQ24" t="s">
         <v>298</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AW24" t="s">
         <v>299</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AY24" t="s">
         <v>300</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="BA24" t="s">
         <v>301</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BB24" t="s">
         <v>302</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BC24" t="s">
         <v>303</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BD24" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE24" t="s">
         <v>304</v>
       </c>
-      <c r="BC24" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD24" t="s">
+      <c r="BF24" t="s">
         <v>305</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="BG24" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH24" t="s">
         <v>306</v>
       </c>
-      <c r="BF24" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG24" t="s">
+      <c r="BJ24" t="s">
         <v>307</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BK24" t="s">
         <v>308</v>
       </c>
-      <c r="BJ24" t="s">
+      <c r="BL24" t="s">
         <v>309</v>
       </c>
-      <c r="BK24" t="s">
+      <c r="BP24" t="s">
         <v>310</v>
       </c>
-      <c r="BO24" t="s">
+      <c r="BQ24" t="s">
         <v>311</v>
       </c>
-      <c r="BP24" t="s">
+      <c r="BR24" t="s">
         <v>312</v>
       </c>
-      <c r="BQ24" t="s">
+      <c r="BU24" t="s">
         <v>313</v>
       </c>
-      <c r="BT24" t="s">
+      <c r="BV24" t="s">
         <v>314</v>
       </c>
-      <c r="BU24" t="s">
-        <v>315</v>
-      </c>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C25" t="s">
         <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E25" s="1">
         <v>320619961002</v>
@@ -5277,108 +5364,111 @@
         <v>99</v>
       </c>
       <c r="G25" t="s">
+        <v>324</v>
+      </c>
+      <c r="I25" t="s">
         <v>325</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
+        <v>382</v>
+      </c>
+      <c r="L25" t="s">
+        <v>391</v>
+      </c>
+      <c r="M25" t="s">
+        <v>388</v>
+      </c>
+      <c r="O25" t="s">
         <v>326</v>
       </c>
-      <c r="K25" t="s">
-        <v>384</v>
-      </c>
-      <c r="L25" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="R25" t="s">
+        <v>106</v>
+      </c>
+      <c r="T25" t="s">
+        <v>355</v>
+      </c>
+      <c r="U25" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD25" t="s">
         <v>327</v>
       </c>
-      <c r="Q25" t="s">
-        <v>107</v>
-      </c>
-      <c r="S25" t="s">
-        <v>357</v>
-      </c>
-      <c r="T25" t="s">
-        <v>358</v>
-      </c>
-      <c r="AC25" t="s">
+      <c r="AE25" t="s">
         <v>328</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AF25" t="s">
         <v>329</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AJ25" t="s">
         <v>330</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AM25" t="s">
         <v>331</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AN25" t="s">
         <v>332</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AQ25" t="s">
         <v>333</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AS25" t="s">
         <v>334</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AY25" t="s">
         <v>335</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="BA25" t="s">
         <v>336</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BB25" t="s">
         <v>337</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BC25" t="s">
         <v>338</v>
       </c>
-      <c r="BB25" t="s">
+      <c r="BD25" t="s">
         <v>339</v>
       </c>
-      <c r="BC25" t="s">
+      <c r="BE25" t="s">
         <v>340</v>
       </c>
-      <c r="BD25" t="s">
+      <c r="BF25" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG25" t="s">
         <v>341</v>
       </c>
-      <c r="BE25" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF25" t="s">
+      <c r="BH25" t="s">
         <v>342</v>
       </c>
-      <c r="BG25" t="s">
+      <c r="BJ25" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK25" t="s">
         <v>343</v>
       </c>
-      <c r="BI25" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ25" t="s">
+      <c r="BL25" t="s">
         <v>344</v>
       </c>
-      <c r="BK25" t="s">
+      <c r="BQ25" t="s">
         <v>345</v>
       </c>
-      <c r="BP25" t="s">
+      <c r="BR25" t="s">
         <v>346</v>
       </c>
-      <c r="BQ25" t="s">
-        <v>347</v>
-      </c>
     </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C26" t="s">
         <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E26" s="1">
         <v>320619970113</v>
@@ -5387,111 +5477,114 @@
         <v>99</v>
       </c>
       <c r="G26" t="s">
+        <v>324</v>
+      </c>
+      <c r="I26" t="s">
         <v>325</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
+        <v>383</v>
+      </c>
+      <c r="L26" t="s">
+        <v>391</v>
+      </c>
+      <c r="M26" t="s">
+        <v>388</v>
+      </c>
+      <c r="O26" t="s">
         <v>326</v>
       </c>
-      <c r="K26" t="s">
-        <v>385</v>
-      </c>
-      <c r="L26" t="s">
-        <v>104</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="R26" t="s">
+        <v>106</v>
+      </c>
+      <c r="T26" t="s">
+        <v>355</v>
+      </c>
+      <c r="U26" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD26" t="s">
         <v>327</v>
       </c>
-      <c r="Q26" t="s">
-        <v>107</v>
-      </c>
-      <c r="S26" t="s">
-        <v>357</v>
-      </c>
-      <c r="T26" t="s">
-        <v>358</v>
-      </c>
-      <c r="AC26" t="s">
+      <c r="AE26" t="s">
         <v>328</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AF26" t="s">
         <v>329</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AJ26" t="s">
         <v>330</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AM26" t="s">
         <v>331</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AN26" t="s">
         <v>332</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AQ26" t="s">
         <v>333</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AS26" t="s">
         <v>334</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AY26" t="s">
         <v>335</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="BA26" t="s">
         <v>336</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BB26" t="s">
         <v>337</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BC26" t="s">
         <v>338</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BD26" t="s">
         <v>339</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BE26" t="s">
         <v>340</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BF26" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG26" t="s">
         <v>341</v>
       </c>
-      <c r="BE26" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF26" t="s">
+      <c r="BH26" t="s">
         <v>342</v>
       </c>
-      <c r="BG26" t="s">
+      <c r="BJ26" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK26" t="s">
         <v>343</v>
       </c>
-      <c r="BI26" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ26" t="s">
+      <c r="BL26" t="s">
         <v>344</v>
       </c>
-      <c r="BK26" t="s">
+      <c r="BQ26" t="s">
         <v>345</v>
       </c>
-      <c r="BP26" t="s">
+      <c r="BR26" t="s">
         <v>346</v>
       </c>
-      <c r="BQ26" t="s">
-        <v>347</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>354</v>
+      <c r="BW26" t="s">
+        <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C27" t="s">
         <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E27" s="1">
         <v>320619930325</v>
@@ -5500,81 +5593,84 @@
         <v>99</v>
       </c>
       <c r="G27" t="s">
+        <v>316</v>
+      </c>
+      <c r="I27" t="s">
         <v>317</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>318</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
+        <v>381</v>
+      </c>
+      <c r="L27" t="s">
+        <v>390</v>
+      </c>
+      <c r="M27" t="s">
         <v>319</v>
       </c>
-      <c r="K27" t="s">
-        <v>383</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="O27">
+        <v>-999</v>
+      </c>
+      <c r="Q27" t="s">
         <v>320</v>
       </c>
-      <c r="N27">
-        <v>-999</v>
-      </c>
-      <c r="P27" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>207</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="R27" t="s">
+        <v>206</v>
+      </c>
+      <c r="T27" t="s">
+        <v>291</v>
+      </c>
+      <c r="V27" t="s">
         <v>292</v>
-      </c>
-      <c r="U27" t="s">
-        <v>293</v>
-      </c>
-      <c r="V27" t="s">
-        <v>294</v>
       </c>
       <c r="W27" t="s">
         <v>293</v>
       </c>
       <c r="X27" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD27" t="s">
         <v>294</v>
       </c>
-      <c r="Z27" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>235</v>
-      </c>
       <c r="AE27" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH27" t="s">
         <v>322</v>
       </c>
-      <c r="AG27" t="s">
-        <v>323</v>
-      </c>
     </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C28" t="s">
         <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E28" s="1">
         <v>320619961002</v>
@@ -5583,57 +5679,60 @@
         <v>99</v>
       </c>
       <c r="G28" t="s">
+        <v>348</v>
+      </c>
+      <c r="I28" t="s">
+        <v>325</v>
+      </c>
+      <c r="K28" t="s">
+        <v>384</v>
+      </c>
+      <c r="L28" t="s">
+        <v>390</v>
+      </c>
+      <c r="M28" t="s">
+        <v>389</v>
+      </c>
+      <c r="O28" t="s">
+        <v>326</v>
+      </c>
+      <c r="R28" t="s">
+        <v>106</v>
+      </c>
+      <c r="T28" t="s">
+        <v>355</v>
+      </c>
+      <c r="U28" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG28" t="s">
         <v>349</v>
       </c>
-      <c r="I28" t="s">
-        <v>326</v>
-      </c>
-      <c r="K28" t="s">
-        <v>386</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="AH28" t="s">
         <v>350</v>
       </c>
-      <c r="N28" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>107</v>
-      </c>
-      <c r="S28" t="s">
-        <v>357</v>
-      </c>
-      <c r="T28" t="s">
-        <v>358</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>351</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>352</v>
-      </c>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C29" t="s">
         <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E29" s="1">
         <v>320619970113</v>
@@ -5642,46 +5741,50 @@
         <v>99</v>
       </c>
       <c r="G29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I29" t="s">
+        <v>325</v>
+      </c>
+      <c r="K29" t="s">
+        <v>385</v>
+      </c>
+      <c r="L29" t="s">
+        <v>390</v>
+      </c>
+      <c r="M29" t="s">
+        <v>389</v>
+      </c>
+      <c r="O29" t="s">
+        <v>326</v>
+      </c>
+      <c r="R29" t="s">
+        <v>106</v>
+      </c>
+      <c r="T29" t="s">
+        <v>355</v>
+      </c>
+      <c r="U29" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG29" t="s">
         <v>349</v>
       </c>
-      <c r="I29" t="s">
-        <v>326</v>
-      </c>
-      <c r="K29" t="s">
-        <v>387</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="AH29" t="s">
         <v>350</v>
-      </c>
-      <c r="N29" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>107</v>
-      </c>
-      <c r="S29" t="s">
-        <v>357</v>
-      </c>
-      <c r="T29" t="s">
-        <v>358</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>351</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/product_data/processing_metadata/C2/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C2/PIG_meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{070497C2-19CC-4BAD-BA79-40727EC20C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E49F7E46-37D9-496D-800B-50DA6BBA9973}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{070497C2-19CC-4BAD-BA79-40727EC20C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1253792-C525-4794-ACA4-C308023FD29C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD0B7FAE-241F-4E23-A02A-6E81F5ECAC2C}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>Chla_ide</t>
   </si>
   <si>
-    <t>Chla_ allom</t>
-  </si>
-  <si>
     <t>Chla_prime</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>%H:%M:%S %p</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -543,9 +537,6 @@
     <t>Time(UTC)Formatted</t>
   </si>
   <si>
-    <t>%H:%M %p</t>
-  </si>
-  <si>
     <t>TubeLabel</t>
   </si>
   <si>
@@ -858,358 +849,367 @@
     <t>john.keesing@csiro.au - Lesley.Clementson@csiro.au</t>
   </si>
   <si>
+    <t>E:/Data_downloads/IMOS_SRS/09SS20100730/HPLC</t>
+  </si>
+  <si>
+    <t>Christine Hanson</t>
+  </si>
+  <si>
+    <t>christine.hanson@uwa.edu.au - Lesley.Clementson@csiro.au</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/IMOS_SRS/09SS20101015/HPLC</t>
+  </si>
+  <si>
+    <t>Christel Hassler - Arnold Dekker</t>
+  </si>
+  <si>
+    <t>Christel.Hassler@csiro.au; Arnold.Dekker@csiro.au - Lesley.Clementson@csiro.au</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/IMOS_SRS/09SS20120811/HPLC</t>
+  </si>
+  <si>
+    <t>Eric Raes</t>
+  </si>
+  <si>
+    <t>eric.raes@research.uwa.edu.au - Lesley.Clementson@csiro.au</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/IMOS_SRS/09SS20120907/HPLC</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/PAL-LTER/pigments/HPLC/320619930325</t>
+  </si>
+  <si>
+    <t>Palmer LTER</t>
+  </si>
+  <si>
+    <t>Oscar Schofield - Maria Vernet - Barbara Prezelin</t>
+  </si>
+  <si>
+    <t>https://pal.lternet.edu/data - pallter-im@ucsd.edu - oscar@marine.rutgers.edu - mvernet@ucsd.edu - prezelin@lifesci.ucsb.edu</t>
+  </si>
+  <si>
+    <t>10.6073/pasta/4d583713667a0f52b9d2937a26d0d82e</t>
+  </si>
+  <si>
+    <t>Cast-uw</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Datetime.GMT</t>
+  </si>
+  <si>
+    <t>%Y-%m-%d %H:%M:%S</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>Divinyl.Chlorophyll.a</t>
+  </si>
+  <si>
+    <t>Chlorophyll.a</t>
+  </si>
+  <si>
+    <t>Chlorophyllide</t>
+  </si>
+  <si>
+    <t>Chlorophyll.b</t>
+  </si>
+  <si>
+    <t>Chlorophyll.c2</t>
+  </si>
+  <si>
+    <t>Chlorophyll.c3</t>
+  </si>
+  <si>
+    <t>X19..hexanoyloxyfucoxanthin</t>
+  </si>
+  <si>
+    <t>X19..butanoyloxyfucoxanthin</t>
+  </si>
+  <si>
+    <t>Fucoxanthin</t>
+  </si>
+  <si>
+    <t>Prasinoxanthin.</t>
+  </si>
+  <si>
+    <t>Alloxanthin</t>
+  </si>
+  <si>
+    <t>Zeaxanthin</t>
+  </si>
+  <si>
+    <t>Violaxanthin</t>
+  </si>
+  <si>
+    <t>Alpha.carotene</t>
+  </si>
+  <si>
+    <t>Beta.carotene</t>
+  </si>
+  <si>
+    <t>Neoxanthin..µg.l.</t>
+  </si>
+  <si>
+    <t>Diadinoxanthin</t>
+  </si>
+  <si>
+    <t>Diatoxanthin</t>
+  </si>
+  <si>
+    <t>Phaeophorbide</t>
+  </si>
+  <si>
+    <t>Phaeophytin</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/PAL-LTER/pigments/CHL/320619930325</t>
+  </si>
+  <si>
+    <t>Oscar Schofield - Maria Vernet - Raymond Smith</t>
+  </si>
+  <si>
+    <t>https://pal.lternet.edu/data - pallter-im@ucsd.edu - oscar@marine.rutgers.edu - mvernet@ucsd.edu - ray@icess.ucsb.edu</t>
+  </si>
+  <si>
+    <t>10.6073/pasta/dea95430a6ad84ecea023ee1ced650d3</t>
+  </si>
+  <si>
+    <t>PALMER_LTER</t>
+  </si>
+  <si>
+    <t>Cast.Number-uw</t>
+  </si>
+  <si>
+    <t>Chlorophyll</t>
+  </si>
+  <si>
+    <t>Phaeopigment</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/JGOFS/320619961002/HPLC_pigments</t>
+  </si>
+  <si>
+    <t>Robert R. Bidigare</t>
+  </si>
+  <si>
+    <t>http://usjgofs.whoi.edu/</t>
+  </si>
+  <si>
+    <t>nd</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>depth_n</t>
+  </si>
+  <si>
+    <t>NG/L</t>
+  </si>
+  <si>
+    <t>chl_a_tot</t>
+  </si>
+  <si>
+    <t>chl_a1</t>
+  </si>
+  <si>
+    <t>chlide_a</t>
+  </si>
+  <si>
+    <t>chl_b1</t>
+  </si>
+  <si>
+    <t>chl_c</t>
+  </si>
+  <si>
+    <t>chl_c3</t>
+  </si>
+  <si>
+    <t>fucox_hex</t>
+  </si>
+  <si>
+    <t>fucox_but</t>
+  </si>
+  <si>
+    <t>fucox</t>
+  </si>
+  <si>
+    <t>peridinin</t>
+  </si>
+  <si>
+    <t>prasinox</t>
+  </si>
+  <si>
+    <t>lutein</t>
+  </si>
+  <si>
+    <t>zeax</t>
+  </si>
+  <si>
+    <t>carotene_a</t>
+  </si>
+  <si>
+    <t>carotene_b</t>
+  </si>
+  <si>
+    <t>diadinox</t>
+  </si>
+  <si>
+    <t>diatox</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/JGOFS/320619961002/phaeopigments</t>
+  </si>
+  <si>
+    <t>Walker O. Smith</t>
+  </si>
+  <si>
+    <t>chl_a_fluor</t>
+  </si>
+  <si>
+    <t>phaeo</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/JGOFS/320619970113/HPLC_pigments</t>
+  </si>
+  <si>
+    <t>ammended TM HPLC metadata based on notes from DMO</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/JGOFS/320619970113/phaeopigments</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/IMOS_SRS/09SS20030822/HPLC</t>
+  </si>
+  <si>
+    <t>cast_type-sta</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>09AR20010101_pig</t>
+  </si>
+  <si>
+    <t>09AR20011029_pig</t>
+  </si>
+  <si>
+    <t>09AR20030103_pig</t>
+  </si>
+  <si>
+    <t>09AR20041001_pig</t>
+  </si>
+  <si>
+    <t>09AR20060102_pig</t>
+  </si>
+  <si>
+    <t>SOCCOM_pig</t>
+  </si>
+  <si>
+    <t>09AR20080323_pig</t>
+  </si>
+  <si>
+    <t>09SS19951115_pig</t>
+  </si>
+  <si>
+    <t>09SS19960416_pig</t>
+  </si>
+  <si>
+    <t>09SS19960513_pig</t>
+  </si>
+  <si>
+    <t>09SS19961120_pig</t>
+  </si>
+  <si>
+    <t>09SS19990110_pig</t>
+  </si>
+  <si>
+    <t>09SS19990206_pig</t>
+  </si>
+  <si>
+    <t>09SS20030822_pig</t>
+  </si>
+  <si>
+    <t>09SS20040120_pig</t>
+  </si>
+  <si>
+    <t>09SS20040723_pig</t>
+  </si>
+  <si>
+    <t>09SS20050721_pig</t>
+  </si>
+  <si>
+    <t>09SS20051118_pig</t>
+  </si>
+  <si>
+    <t>09SS20100730_pig</t>
+  </si>
+  <si>
+    <t>09SS20101015_pig</t>
+  </si>
+  <si>
+    <t>09SS20120811_pig</t>
+  </si>
+  <si>
+    <t>09SS20120907_pig</t>
+  </si>
+  <si>
+    <t>PAL-LTER_pig_hplc</t>
+  </si>
+  <si>
+    <t>PAL-LTER_pig_chl</t>
+  </si>
+  <si>
+    <t>320619961002_pig</t>
+  </si>
+  <si>
+    <t>320619970113_pig</t>
+  </si>
+  <si>
+    <t>320619961002_fluor</t>
+  </si>
+  <si>
+    <t>320619970113_fluor</t>
+  </si>
+  <si>
+    <t>BCO-DMO</t>
+  </si>
+  <si>
+    <t>analysis_type</t>
+  </si>
+  <si>
+    <t>Wright_1991</t>
+  </si>
+  <si>
+    <t>JGOFS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>Chla_allom</t>
+  </si>
+  <si>
     <t>%Y %m-%dT%H:%M:%SZ</t>
   </si>
   <si>
-    <t>E:/Data_downloads/IMOS_SRS/09SS20100730/HPLC</t>
-  </si>
-  <si>
-    <t>Christine Hanson</t>
-  </si>
-  <si>
-    <t>christine.hanson@uwa.edu.au - Lesley.Clementson@csiro.au</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/IMOS_SRS/09SS20101015/HPLC</t>
-  </si>
-  <si>
-    <t>Christel Hassler - Arnold Dekker</t>
-  </si>
-  <si>
-    <t>Christel.Hassler@csiro.au; Arnold.Dekker@csiro.au - Lesley.Clementson@csiro.au</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/IMOS_SRS/09SS20120811/HPLC</t>
-  </si>
-  <si>
-    <t>Eric Raes</t>
-  </si>
-  <si>
-    <t>eric.raes@research.uwa.edu.au - Lesley.Clementson@csiro.au</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/IMOS_SRS/09SS20120907/HPLC</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/PAL-LTER/pigments/HPLC/320619930325</t>
-  </si>
-  <si>
-    <t>Palmer LTER</t>
-  </si>
-  <si>
-    <t>Oscar Schofield - Maria Vernet - Barbara Prezelin</t>
-  </si>
-  <si>
-    <t>https://pal.lternet.edu/data - pallter-im@ucsd.edu - oscar@marine.rutgers.edu - mvernet@ucsd.edu - prezelin@lifesci.ucsb.edu</t>
-  </si>
-  <si>
-    <t>10.6073/pasta/4d583713667a0f52b9d2937a26d0d82e</t>
-  </si>
-  <si>
-    <t>Cast-uw</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Datetime.GMT</t>
-  </si>
-  <si>
-    <t>%Y-%m-%d %H:%M:%S</t>
-  </si>
-  <si>
-    <t>Bottle</t>
-  </si>
-  <si>
-    <t>Divinyl.Chlorophyll.a</t>
-  </si>
-  <si>
-    <t>Chlorophyll.a</t>
-  </si>
-  <si>
-    <t>Chlorophyllide</t>
-  </si>
-  <si>
-    <t>Chlorophyll.b</t>
-  </si>
-  <si>
-    <t>Chlorophyll.c2</t>
-  </si>
-  <si>
-    <t>Chlorophyll.c3</t>
-  </si>
-  <si>
-    <t>X19..hexanoyloxyfucoxanthin</t>
-  </si>
-  <si>
-    <t>X19..butanoyloxyfucoxanthin</t>
-  </si>
-  <si>
-    <t>Fucoxanthin</t>
-  </si>
-  <si>
-    <t>Prasinoxanthin.</t>
-  </si>
-  <si>
-    <t>Alloxanthin</t>
-  </si>
-  <si>
-    <t>Zeaxanthin</t>
-  </si>
-  <si>
-    <t>Violaxanthin</t>
-  </si>
-  <si>
-    <t>Alpha.carotene</t>
-  </si>
-  <si>
-    <t>Beta.carotene</t>
-  </si>
-  <si>
-    <t>Neoxanthin..µg.l.</t>
-  </si>
-  <si>
-    <t>Diadinoxanthin</t>
-  </si>
-  <si>
-    <t>Diatoxanthin</t>
-  </si>
-  <si>
-    <t>Phaeophorbide</t>
-  </si>
-  <si>
-    <t>Phaeophytin</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/PAL-LTER/pigments/CHL/320619930325</t>
-  </si>
-  <si>
-    <t>Oscar Schofield - Maria Vernet - Raymond Smith</t>
-  </si>
-  <si>
-    <t>https://pal.lternet.edu/data - pallter-im@ucsd.edu - oscar@marine.rutgers.edu - mvernet@ucsd.edu - ray@icess.ucsb.edu</t>
-  </si>
-  <si>
-    <t>10.6073/pasta/dea95430a6ad84ecea023ee1ced650d3</t>
-  </si>
-  <si>
-    <t>PALMER_LTER</t>
-  </si>
-  <si>
-    <t>Cast.Number-uw</t>
-  </si>
-  <si>
-    <t>Chlorophyll</t>
-  </si>
-  <si>
-    <t>Phaeopigment</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/JGOFS/320619961002/HPLC_pigments</t>
-  </si>
-  <si>
-    <t>Robert R. Bidigare</t>
-  </si>
-  <si>
-    <t>http://usjgofs.whoi.edu/</t>
-  </si>
-  <si>
-    <t>nd</t>
-  </si>
-  <si>
-    <t>bot</t>
-  </si>
-  <si>
-    <t>depth_n</t>
-  </si>
-  <si>
-    <t>NG/L</t>
-  </si>
-  <si>
-    <t>chl_a_tot</t>
-  </si>
-  <si>
-    <t>chl_a1</t>
-  </si>
-  <si>
-    <t>chlide_a</t>
-  </si>
-  <si>
-    <t>chl_b1</t>
-  </si>
-  <si>
-    <t>chl_c</t>
-  </si>
-  <si>
-    <t>chl_c3</t>
-  </si>
-  <si>
-    <t>fucox_hex</t>
-  </si>
-  <si>
-    <t>fucox_but</t>
-  </si>
-  <si>
-    <t>fucox</t>
-  </si>
-  <si>
-    <t>peridinin</t>
-  </si>
-  <si>
-    <t>prasinox</t>
-  </si>
-  <si>
-    <t>lutein</t>
-  </si>
-  <si>
-    <t>zeax</t>
-  </si>
-  <si>
-    <t>carotene_a</t>
-  </si>
-  <si>
-    <t>carotene_b</t>
-  </si>
-  <si>
-    <t>diadinox</t>
-  </si>
-  <si>
-    <t>diatox</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/JGOFS/320619961002/phaeopigments</t>
-  </si>
-  <si>
-    <t>Walker O. Smith</t>
-  </si>
-  <si>
-    <t>chl_a_fluor</t>
-  </si>
-  <si>
-    <t>phaeo</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/JGOFS/320619970113/HPLC_pigments</t>
-  </si>
-  <si>
-    <t>ammended TM HPLC metadata based on notes from DMO</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/JGOFS/320619970113/phaeopigments</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/IMOS_SRS/09SS20030822/HPLC</t>
-  </si>
-  <si>
-    <t>cast_type-sta</t>
-  </si>
-  <si>
-    <t>cast</t>
-  </si>
-  <si>
-    <t>citation</t>
-  </si>
-  <si>
-    <t>09AR20010101_pig</t>
-  </si>
-  <si>
-    <t>09AR20011029_pig</t>
-  </si>
-  <si>
-    <t>09AR20030103_pig</t>
-  </si>
-  <si>
-    <t>09AR20041001_pig</t>
-  </si>
-  <si>
-    <t>09AR20060102_pig</t>
-  </si>
-  <si>
-    <t>SOCCOM_pig</t>
-  </si>
-  <si>
-    <t>09AR20080323_pig</t>
-  </si>
-  <si>
-    <t>09SS19951115_pig</t>
-  </si>
-  <si>
-    <t>09SS19960416_pig</t>
-  </si>
-  <si>
-    <t>09SS19960513_pig</t>
-  </si>
-  <si>
-    <t>09SS19961120_pig</t>
-  </si>
-  <si>
-    <t>09SS19990110_pig</t>
-  </si>
-  <si>
-    <t>09SS19990206_pig</t>
-  </si>
-  <si>
-    <t>09SS20030822_pig</t>
-  </si>
-  <si>
-    <t>09SS20040120_pig</t>
-  </si>
-  <si>
-    <t>09SS20040723_pig</t>
-  </si>
-  <si>
-    <t>09SS20050721_pig</t>
-  </si>
-  <si>
-    <t>09SS20051118_pig</t>
-  </si>
-  <si>
-    <t>09SS20100730_pig</t>
-  </si>
-  <si>
-    <t>09SS20101015_pig</t>
-  </si>
-  <si>
-    <t>09SS20120811_pig</t>
-  </si>
-  <si>
-    <t>09SS20120907_pig</t>
-  </si>
-  <si>
-    <t>PAL-LTER_pig_hplc</t>
-  </si>
-  <si>
-    <t>PAL-LTER_pig_chl</t>
-  </si>
-  <si>
-    <t>320619961002_pig</t>
-  </si>
-  <si>
-    <t>320619970113_pig</t>
-  </si>
-  <si>
-    <t>320619961002_fluor</t>
-  </si>
-  <si>
-    <t>320619970113_fluor</t>
-  </si>
-  <si>
-    <t>BCO-DMO</t>
-  </si>
-  <si>
-    <t>analysis_type</t>
-  </si>
-  <si>
-    <t>Wright_1991</t>
-  </si>
-  <si>
-    <t>JGOFS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>HPLC</t>
+    <t>%I:%M:%S %p</t>
+  </si>
+  <si>
+    <t>%I:%M %p</t>
   </si>
 </sst>
 </file>
@@ -1570,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50972AA6-2965-4F2B-AD21-A9711D8DE30C}">
   <dimension ref="A1:BW29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1608,10 +1608,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1698,987 +1698,987 @@
         <v>37</v>
       </c>
       <c r="AO1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>71</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
         <v>98</v>
       </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>100</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>101</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>102</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M2" t="s">
+        <v>384</v>
+      </c>
+      <c r="O2" t="s">
         <v>103</v>
       </c>
-      <c r="K2" t="s">
-        <v>358</v>
-      </c>
-      <c r="L2" t="s">
-        <v>391</v>
-      </c>
-      <c r="M2" t="s">
-        <v>388</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>105</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>106</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>107</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>108</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>109</v>
       </c>
-      <c r="X2" t="s">
-        <v>110</v>
-      </c>
       <c r="Y2" t="s">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c r="Z2" t="s">
         <v>23</v>
       </c>
       <c r="AA2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC2" t="s">
         <v>112</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>113</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>114</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AM2" t="s">
         <v>115</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
         <v>98</v>
       </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>99</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>101</v>
       </c>
-      <c r="I3" t="s">
-        <v>102</v>
-      </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>105</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>106</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>107</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>108</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>109</v>
       </c>
-      <c r="X3" t="s">
-        <v>110</v>
-      </c>
       <c r="Y3" t="s">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c r="Z3" t="s">
         <v>23</v>
       </c>
       <c r="AA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC3" t="s">
         <v>112</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>113</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AF3" t="s">
         <v>114</v>
       </c>
-      <c r="AE3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU3" t="s">
         <v>120</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AW3" t="s">
         <v>121</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AY3" t="s">
         <v>122</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AZ3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA3" t="s">
         <v>123</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="BB3" t="s">
         <v>124</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA3" t="s">
+      <c r="BC3" t="s">
         <v>125</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BD3" t="s">
         <v>126</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BE3" t="s">
         <v>127</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BF3" t="s">
         <v>128</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BG3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH3" t="s">
         <v>129</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BJ3" t="s">
         <v>130</v>
       </c>
-      <c r="BG3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH3" t="s">
+      <c r="BL3" t="s">
         <v>131</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BP3" t="s">
         <v>132</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BQ3" t="s">
         <v>133</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BR3" t="s">
         <v>134</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BU3" t="s">
         <v>135</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BV3" t="s">
         <v>136</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>137</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
         <v>98</v>
       </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>99</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>100</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" t="s">
-        <v>102</v>
-      </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L4" t="s">
+        <v>387</v>
+      </c>
+      <c r="M4" t="s">
+        <v>384</v>
+      </c>
+      <c r="O4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" t="s">
+        <v>106</v>
+      </c>
+      <c r="V4" t="s">
+        <v>107</v>
+      </c>
+      <c r="W4" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" t="s">
         <v>391</v>
-      </c>
-      <c r="M4" t="s">
-        <v>388</v>
-      </c>
-      <c r="O4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R4" t="s">
-        <v>106</v>
-      </c>
-      <c r="T4" t="s">
-        <v>107</v>
-      </c>
-      <c r="V4" t="s">
-        <v>108</v>
-      </c>
-      <c r="W4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>111</v>
       </c>
       <c r="Z4" t="s">
         <v>23</v>
       </c>
       <c r="AA4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC4" t="s">
         <v>112</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE4" t="s">
         <v>113</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AF4" t="s">
         <v>114</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AJ4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM4" t="s">
         <v>141</v>
       </c>
-      <c r="AE4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="AN4" t="s">
         <v>142</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>143</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>144</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" t="s">
         <v>145</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AU4" t="s">
         <v>146</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AW4" t="s">
         <v>147</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AY4" t="s">
         <v>148</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AZ4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA4" t="s">
         <v>149</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BB4" t="s">
         <v>150</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA4" t="s">
+      <c r="BC4" t="s">
         <v>151</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BD4" t="s">
         <v>152</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BE4" t="s">
         <v>153</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BF4" t="s">
         <v>154</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BG4" t="s">
         <v>155</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>156</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>157</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BL4" t="s">
         <v>158</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BP4" t="s">
         <v>159</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BQ4" t="s">
         <v>160</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BR4" t="s">
         <v>161</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" t="s">
+        <v>357</v>
+      </c>
+      <c r="L5" t="s">
+        <v>387</v>
+      </c>
+      <c r="M5" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q5" t="s">
         <v>164</v>
       </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="R5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V5" t="s">
         <v>165</v>
       </c>
-      <c r="K5" t="s">
-        <v>361</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="W5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y5" t="s">
         <v>391</v>
       </c>
-      <c r="M5" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>166</v>
-      </c>
-      <c r="R5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="Z5" t="s">
         <v>167</v>
       </c>
-      <c r="W5" t="s">
-        <v>109</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>168</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AB5" t="s">
         <v>169</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AC5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="BL5" t="s">
+        <v>158</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>160</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BU5" t="s">
         <v>171</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="BV5" t="s">
         <v>172</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>157</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>158</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>173</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>161</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>174</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
         <v>97</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
         <v>98</v>
       </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>99</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>100</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>101</v>
       </c>
-      <c r="I6" t="s">
-        <v>102</v>
-      </c>
       <c r="J6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" t="s">
         <v>104</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>105</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>106</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>107</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>108</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>109</v>
       </c>
-      <c r="X6" t="s">
-        <v>110</v>
-      </c>
       <c r="Y6" t="s">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c r="Z6" t="s">
         <v>23</v>
       </c>
       <c r="AA6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC6" t="s">
         <v>112</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AE6" t="s">
         <v>113</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AF6" t="s">
         <v>114</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>116</v>
       </c>
       <c r="AM6" t="s">
         <v>36</v>
       </c>
       <c r="AN6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB6" t="s">
         <v>178</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="BC6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE6" t="s">
         <v>179</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA6" t="s">
+      <c r="BF6" t="s">
         <v>180</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BG6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL6" t="s">
         <v>181</v>
       </c>
-      <c r="BC6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE6" t="s">
+      <c r="BM6" t="s">
         <v>182</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BP6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ6" t="s">
         <v>183</v>
       </c>
-      <c r="BG6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL6" t="s">
+      <c r="BR6" t="s">
         <v>184</v>
       </c>
-      <c r="BM6" t="s">
+      <c r="BU6" t="s">
         <v>185</v>
       </c>
-      <c r="BP6" t="s">
-        <v>65</v>
-      </c>
-      <c r="BQ6" t="s">
+      <c r="BV6" t="s">
         <v>186</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>187</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>188</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
         <v>98</v>
       </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>99</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>100</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>101</v>
       </c>
-      <c r="I7" t="s">
-        <v>102</v>
-      </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" t="s">
         <v>104</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>105</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>106</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>107</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>108</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>109</v>
       </c>
-      <c r="X7" t="s">
-        <v>110</v>
-      </c>
       <c r="Y7" t="s">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c r="Z7" t="s">
         <v>23</v>
       </c>
       <c r="AA7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC7" t="s">
         <v>112</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
         <v>113</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AF7" t="s">
         <v>114</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>116</v>
       </c>
       <c r="AM7" t="s">
         <v>36</v>
       </c>
       <c r="AN7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AP7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AQ7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AU7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY7" t="s">
         <v>122</v>
       </c>
-      <c r="AW7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>124</v>
-      </c>
       <c r="AZ7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BA7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE7" t="s">
         <v>192</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BF7" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG7" t="s">
         <v>193</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BH7" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK7" t="s">
         <v>194</v>
       </c>
-      <c r="BD7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE7" t="s">
+      <c r="BL7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>159</v>
+      </c>
+      <c r="BQ7" t="s">
         <v>195</v>
       </c>
-      <c r="BF7" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>197</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>185</v>
-      </c>
-      <c r="BP7" t="s">
+      <c r="BR7" t="s">
         <v>161</v>
       </c>
-      <c r="BQ7" t="s">
-        <v>198</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>163</v>
-      </c>
       <c r="BV7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" t="s">
         <v>199</v>
       </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
         <v>200</v>
       </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>201</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
+        <v>359</v>
+      </c>
+      <c r="L8" t="s">
+        <v>387</v>
+      </c>
+      <c r="M8" t="s">
         <v>202</v>
-      </c>
-      <c r="I8" t="s">
-        <v>203</v>
-      </c>
-      <c r="J8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K8" t="s">
-        <v>363</v>
-      </c>
-      <c r="L8" t="s">
-        <v>391</v>
-      </c>
-      <c r="M8" t="s">
-        <v>205</v>
       </c>
       <c r="O8">
         <v>-9999</v>
@@ -2687,135 +2687,135 @@
         <v>-8888</v>
       </c>
       <c r="R8" t="s">
+        <v>203</v>
+      </c>
+      <c r="T8" t="s">
+        <v>204</v>
+      </c>
+      <c r="V8" t="s">
+        <v>205</v>
+      </c>
+      <c r="X8" t="s">
         <v>206</v>
       </c>
-      <c r="T8" t="s">
+      <c r="Y8" t="s">
         <v>207</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Z8" t="s">
         <v>208</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>209</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AB8" t="s">
         <v>210</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AC8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD8" t="s">
         <v>211</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AE8" t="s">
         <v>212</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>213</v>
       </c>
-      <c r="AC8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AJ8" t="s">
         <v>214</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AN8" t="s">
         <v>215</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AQ8" t="s">
         <v>216</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AW8" t="s">
         <v>217</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AY8" t="s">
         <v>218</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="BA8" t="s">
         <v>219</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="BB8" t="s">
         <v>220</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="BC8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL8" t="s">
         <v>221</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BM8" t="s">
         <v>222</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BP8" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BW8" t="s">
         <v>223</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>130</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>225</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>134</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" t="s">
         <v>227</v>
       </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>228</v>
       </c>
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" t="s">
-        <v>229</v>
-      </c>
-      <c r="H9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" t="s">
-        <v>231</v>
-      </c>
       <c r="K9" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O9">
         <v>-999</v>
@@ -2824,159 +2824,159 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T9" t="s">
+        <v>229</v>
+      </c>
+      <c r="V9" t="s">
+        <v>109</v>
+      </c>
+      <c r="W9" t="s">
+        <v>230</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>232</v>
       </c>
-      <c r="V9" t="s">
-        <v>110</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="AL9" t="s">
         <v>233</v>
       </c>
-      <c r="X9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="AM9" t="s">
         <v>234</v>
       </c>
-      <c r="AF9" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ9" t="s">
+      <c r="AN9" t="s">
         <v>235</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AQ9" t="s">
         <v>236</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AR9" t="s">
         <v>237</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AU9" t="s">
         <v>238</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AW9" t="s">
         <v>239</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AX9" t="s">
         <v>240</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AY9" t="s">
         <v>241</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AZ9" t="s">
         <v>242</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="BA9" t="s">
         <v>243</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="BB9" t="s">
         <v>244</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BC9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK9" t="s">
         <v>245</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BL9" t="s">
         <v>246</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BO9" t="s">
         <v>247</v>
       </c>
-      <c r="BC9" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ9" t="s">
+      <c r="BP9" t="s">
         <v>132</v>
       </c>
-      <c r="BK9" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP9" t="s">
+      <c r="BQ9" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR9" t="s">
         <v>134</v>
       </c>
-      <c r="BQ9" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>136</v>
-      </c>
       <c r="BU9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV9" t="s">
         <v>70</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O10">
         <v>-999</v>
@@ -2985,159 +2985,159 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T10" t="s">
+        <v>229</v>
+      </c>
+      <c r="V10" t="s">
+        <v>109</v>
+      </c>
+      <c r="W10" t="s">
+        <v>230</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>232</v>
       </c>
-      <c r="V10" t="s">
-        <v>110</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="AL10" t="s">
         <v>233</v>
       </c>
-      <c r="X10" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="AM10" t="s">
         <v>234</v>
       </c>
-      <c r="AF10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ10" t="s">
+      <c r="AN10" t="s">
         <v>235</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AQ10" t="s">
         <v>236</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AR10" t="s">
         <v>237</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AU10" t="s">
         <v>238</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AW10" t="s">
         <v>239</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AX10" t="s">
         <v>240</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AY10" t="s">
         <v>241</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AZ10" t="s">
         <v>242</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="BA10" t="s">
         <v>243</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="BB10" t="s">
         <v>244</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BC10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK10" t="s">
         <v>245</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BL10" t="s">
         <v>246</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BO10" t="s">
         <v>247</v>
       </c>
-      <c r="BC10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ10" t="s">
+      <c r="BP10" t="s">
         <v>132</v>
       </c>
-      <c r="BK10" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP10" t="s">
+      <c r="BQ10" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR10" t="s">
         <v>134</v>
       </c>
-      <c r="BQ10" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>136</v>
-      </c>
       <c r="BU10" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV10" t="s">
         <v>70</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O11">
         <v>-999</v>
@@ -3146,159 +3146,159 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T11" t="s">
+        <v>229</v>
+      </c>
+      <c r="V11" t="s">
+        <v>109</v>
+      </c>
+      <c r="W11" t="s">
+        <v>230</v>
+      </c>
+      <c r="X11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>232</v>
       </c>
-      <c r="V11" t="s">
-        <v>110</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="AL11" t="s">
         <v>233</v>
       </c>
-      <c r="X11" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE11" t="s">
+      <c r="AM11" t="s">
         <v>234</v>
       </c>
-      <c r="AF11" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ11" t="s">
+      <c r="AN11" t="s">
         <v>235</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AQ11" t="s">
         <v>236</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AR11" t="s">
         <v>237</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AU11" t="s">
         <v>238</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AW11" t="s">
         <v>239</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AX11" t="s">
         <v>240</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AY11" t="s">
         <v>241</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AZ11" t="s">
         <v>242</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="BA11" t="s">
         <v>243</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="BB11" t="s">
         <v>244</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BC11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK11" t="s">
         <v>245</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BL11" t="s">
         <v>246</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BO11" t="s">
         <v>247</v>
       </c>
-      <c r="BC11" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ11" t="s">
+      <c r="BP11" t="s">
         <v>132</v>
       </c>
-      <c r="BK11" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP11" t="s">
+      <c r="BQ11" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR11" t="s">
         <v>134</v>
       </c>
-      <c r="BQ11" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>136</v>
-      </c>
       <c r="BU11" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV11" t="s">
         <v>70</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M12" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O12">
         <v>-999</v>
@@ -3307,159 +3307,159 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T12" t="s">
+        <v>229</v>
+      </c>
+      <c r="V12" t="s">
+        <v>109</v>
+      </c>
+      <c r="W12" t="s">
+        <v>230</v>
+      </c>
+      <c r="X12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>232</v>
       </c>
-      <c r="V12" t="s">
-        <v>110</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="AL12" t="s">
         <v>233</v>
       </c>
-      <c r="X12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE12" t="s">
+      <c r="AM12" t="s">
         <v>234</v>
       </c>
-      <c r="AF12" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ12" t="s">
+      <c r="AN12" t="s">
         <v>235</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AQ12" t="s">
         <v>236</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AR12" t="s">
         <v>237</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AU12" t="s">
         <v>238</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AW12" t="s">
         <v>239</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AX12" t="s">
         <v>240</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AY12" t="s">
         <v>241</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AZ12" t="s">
         <v>242</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="BA12" t="s">
         <v>243</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="BB12" t="s">
         <v>244</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BC12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK12" t="s">
         <v>245</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BL12" t="s">
         <v>246</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BO12" t="s">
         <v>247</v>
       </c>
-      <c r="BC12" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ12" t="s">
+      <c r="BP12" t="s">
         <v>132</v>
       </c>
-      <c r="BK12" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP12" t="s">
+      <c r="BQ12" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR12" t="s">
         <v>134</v>
       </c>
-      <c r="BQ12" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>136</v>
-      </c>
       <c r="BU12" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV12" t="s">
         <v>70</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K13" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L13" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M13" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O13">
         <v>-999</v>
@@ -3468,162 +3468,162 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T13" t="s">
+        <v>229</v>
+      </c>
+      <c r="V13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W13" t="s">
+        <v>230</v>
+      </c>
+      <c r="X13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>232</v>
       </c>
-      <c r="V13" t="s">
-        <v>110</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="AL13" t="s">
         <v>233</v>
       </c>
-      <c r="X13" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="AM13" t="s">
         <v>234</v>
       </c>
-      <c r="AF13" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ13" t="s">
+      <c r="AN13" t="s">
         <v>235</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AQ13" t="s">
         <v>236</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AR13" t="s">
         <v>237</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AU13" t="s">
         <v>238</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AW13" t="s">
         <v>239</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AX13" t="s">
         <v>240</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AY13" t="s">
         <v>241</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AZ13" t="s">
         <v>242</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="BA13" t="s">
         <v>243</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="BB13" t="s">
         <v>244</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BC13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK13" t="s">
         <v>245</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BL13" t="s">
         <v>246</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BO13" t="s">
         <v>247</v>
       </c>
-      <c r="BC13" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ13" t="s">
+      <c r="BP13" t="s">
         <v>132</v>
       </c>
-      <c r="BK13" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP13" t="s">
+      <c r="BQ13" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR13" t="s">
         <v>134</v>
       </c>
-      <c r="BQ13" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>136</v>
-      </c>
       <c r="BU13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV13" t="s">
         <v>70</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L14" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M14" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O14">
         <v>-999</v>
@@ -3632,159 +3632,159 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T14" t="s">
+        <v>229</v>
+      </c>
+      <c r="V14" t="s">
+        <v>109</v>
+      </c>
+      <c r="W14" t="s">
+        <v>230</v>
+      </c>
+      <c r="X14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>232</v>
       </c>
-      <c r="V14" t="s">
-        <v>110</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="AL14" t="s">
         <v>233</v>
       </c>
-      <c r="X14" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AM14" t="s">
         <v>234</v>
       </c>
-      <c r="AF14" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ14" t="s">
+      <c r="AN14" t="s">
         <v>235</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AQ14" t="s">
         <v>236</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AR14" t="s">
         <v>237</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AU14" t="s">
         <v>238</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AW14" t="s">
         <v>239</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AX14" t="s">
         <v>240</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AY14" t="s">
         <v>241</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AZ14" t="s">
         <v>242</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="BA14" t="s">
         <v>243</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="BB14" t="s">
         <v>244</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BC14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK14" t="s">
         <v>245</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BL14" t="s">
         <v>246</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BO14" t="s">
         <v>247</v>
       </c>
-      <c r="BC14" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ14" t="s">
+      <c r="BP14" t="s">
         <v>132</v>
       </c>
-      <c r="BK14" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP14" t="s">
+      <c r="BQ14" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR14" t="s">
         <v>134</v>
       </c>
-      <c r="BQ14" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>136</v>
-      </c>
       <c r="BU14" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV14" t="s">
         <v>70</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L15" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M15" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O15">
         <v>-999</v>
@@ -3793,156 +3793,156 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V15" t="s">
+        <v>109</v>
+      </c>
+      <c r="W15" t="s">
+        <v>230</v>
+      </c>
+      <c r="X15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA15" t="s">
         <v>110</v>
       </c>
-      <c r="W15" t="s">
+      <c r="AB15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL15" t="s">
         <v>233</v>
       </c>
-      <c r="X15" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE15" t="s">
+      <c r="AM15" t="s">
         <v>234</v>
       </c>
-      <c r="AF15" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ15" t="s">
+      <c r="AN15" t="s">
         <v>235</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AQ15" t="s">
         <v>236</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AR15" t="s">
         <v>237</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AU15" t="s">
         <v>238</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AW15" t="s">
         <v>239</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AX15" t="s">
         <v>240</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AY15" t="s">
         <v>241</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AZ15" t="s">
         <v>242</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="BA15" t="s">
         <v>243</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="BB15" t="s">
         <v>244</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BC15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK15" t="s">
         <v>245</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BL15" t="s">
         <v>246</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BO15" t="s">
         <v>247</v>
       </c>
-      <c r="BC15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ15" t="s">
+      <c r="BP15" t="s">
         <v>132</v>
       </c>
-      <c r="BK15" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP15" t="s">
+      <c r="BQ15" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR15" t="s">
         <v>134</v>
       </c>
-      <c r="BQ15" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>136</v>
-      </c>
       <c r="BU15" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV15" t="s">
         <v>70</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" t="s">
         <v>228</v>
       </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" t="s">
-        <v>265</v>
-      </c>
-      <c r="H16" t="s">
-        <v>230</v>
-      </c>
-      <c r="I16" t="s">
-        <v>231</v>
-      </c>
       <c r="K16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M16" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O16">
         <v>-999</v>
@@ -3951,159 +3951,159 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T16" t="s">
+        <v>229</v>
+      </c>
+      <c r="V16" t="s">
+        <v>109</v>
+      </c>
+      <c r="W16" t="s">
+        <v>230</v>
+      </c>
+      <c r="X16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>232</v>
       </c>
-      <c r="V16" t="s">
-        <v>110</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="AL16" t="s">
         <v>233</v>
       </c>
-      <c r="X16" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE16" t="s">
+      <c r="AM16" t="s">
         <v>234</v>
       </c>
-      <c r="AF16" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ16" t="s">
+      <c r="AN16" t="s">
         <v>235</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AQ16" t="s">
         <v>236</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AR16" t="s">
         <v>237</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AU16" t="s">
         <v>238</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AW16" t="s">
         <v>239</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AX16" t="s">
         <v>240</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AY16" t="s">
         <v>241</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AZ16" t="s">
         <v>242</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="BA16" t="s">
         <v>243</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="BB16" t="s">
         <v>244</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BC16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK16" t="s">
         <v>245</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BL16" t="s">
         <v>246</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BO16" t="s">
         <v>247</v>
       </c>
-      <c r="BC16" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ16" t="s">
+      <c r="BP16" t="s">
         <v>132</v>
       </c>
-      <c r="BK16" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP16" t="s">
+      <c r="BQ16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR16" t="s">
         <v>134</v>
       </c>
-      <c r="BQ16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>136</v>
-      </c>
       <c r="BU16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV16" t="s">
         <v>70</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K17" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L17" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O17">
         <v>-999</v>
@@ -4112,159 +4112,159 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T17" t="s">
+        <v>229</v>
+      </c>
+      <c r="V17" t="s">
+        <v>109</v>
+      </c>
+      <c r="W17" t="s">
+        <v>230</v>
+      </c>
+      <c r="X17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>232</v>
       </c>
-      <c r="V17" t="s">
-        <v>110</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="AL17" t="s">
         <v>233</v>
       </c>
-      <c r="X17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE17" t="s">
+      <c r="AM17" t="s">
         <v>234</v>
       </c>
-      <c r="AF17" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ17" t="s">
+      <c r="AN17" t="s">
         <v>235</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AQ17" t="s">
         <v>236</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AR17" t="s">
         <v>237</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AU17" t="s">
         <v>238</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AW17" t="s">
         <v>239</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AX17" t="s">
         <v>240</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AY17" t="s">
         <v>241</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AZ17" t="s">
         <v>242</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="BA17" t="s">
         <v>243</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="BB17" t="s">
         <v>244</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BC17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK17" t="s">
         <v>245</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BL17" t="s">
         <v>246</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BO17" t="s">
         <v>247</v>
       </c>
-      <c r="BC17" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ17" t="s">
+      <c r="BP17" t="s">
         <v>132</v>
       </c>
-      <c r="BK17" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP17" t="s">
+      <c r="BQ17" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR17" t="s">
         <v>134</v>
       </c>
-      <c r="BQ17" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>136</v>
-      </c>
       <c r="BU17" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV17" t="s">
         <v>70</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K18" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O18">
         <v>-999</v>
@@ -4273,159 +4273,159 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T18" t="s">
+        <v>229</v>
+      </c>
+      <c r="V18" t="s">
+        <v>109</v>
+      </c>
+      <c r="W18" t="s">
+        <v>230</v>
+      </c>
+      <c r="X18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>232</v>
       </c>
-      <c r="V18" t="s">
-        <v>110</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="AL18" t="s">
         <v>233</v>
       </c>
-      <c r="X18" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE18" t="s">
+      <c r="AM18" t="s">
         <v>234</v>
       </c>
-      <c r="AF18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ18" t="s">
+      <c r="AN18" t="s">
         <v>235</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AQ18" t="s">
         <v>236</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AR18" t="s">
         <v>237</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AU18" t="s">
         <v>238</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AW18" t="s">
         <v>239</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AX18" t="s">
         <v>240</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AY18" t="s">
         <v>241</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AZ18" t="s">
         <v>242</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="BA18" t="s">
         <v>243</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="BB18" t="s">
         <v>244</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BC18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK18" t="s">
         <v>245</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BL18" t="s">
         <v>246</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BO18" t="s">
         <v>247</v>
       </c>
-      <c r="BC18" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ18" t="s">
+      <c r="BP18" t="s">
         <v>132</v>
       </c>
-      <c r="BK18" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP18" t="s">
+      <c r="BQ18" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR18" t="s">
         <v>134</v>
       </c>
-      <c r="BQ18" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>136</v>
-      </c>
       <c r="BU18" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV18" t="s">
         <v>70</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K19" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L19" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M19" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O19">
         <v>-999</v>
@@ -4434,159 +4434,159 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T19" t="s">
+        <v>229</v>
+      </c>
+      <c r="V19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W19" t="s">
+        <v>389</v>
+      </c>
+      <c r="X19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>232</v>
       </c>
-      <c r="V19" t="s">
-        <v>110</v>
-      </c>
-      <c r="W19" t="s">
-        <v>274</v>
-      </c>
-      <c r="X19" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="AL19" t="s">
         <v>233</v>
       </c>
-      <c r="AA19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE19" t="s">
+      <c r="AM19" t="s">
         <v>234</v>
       </c>
-      <c r="AF19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ19" t="s">
+      <c r="AN19" t="s">
         <v>235</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AQ19" t="s">
         <v>236</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AR19" t="s">
         <v>237</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AU19" t="s">
         <v>238</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AW19" t="s">
         <v>239</v>
       </c>
-      <c r="AR19" t="s">
+      <c r="AX19" t="s">
         <v>240</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AY19" t="s">
         <v>241</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AZ19" t="s">
         <v>242</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="BA19" t="s">
         <v>243</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="BB19" t="s">
         <v>244</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BC19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK19" t="s">
         <v>245</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BL19" t="s">
         <v>246</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BO19" t="s">
         <v>247</v>
       </c>
-      <c r="BC19" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ19" t="s">
+      <c r="BP19" t="s">
         <v>132</v>
       </c>
-      <c r="BK19" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP19" t="s">
+      <c r="BQ19" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR19" t="s">
         <v>134</v>
       </c>
-      <c r="BQ19" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>136</v>
-      </c>
       <c r="BU19" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV19" t="s">
         <v>70</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L20" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O20">
         <v>-999</v>
@@ -4595,159 +4595,159 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T20" t="s">
+        <v>229</v>
+      </c>
+      <c r="V20" t="s">
+        <v>109</v>
+      </c>
+      <c r="W20" t="s">
+        <v>230</v>
+      </c>
+      <c r="X20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>232</v>
       </c>
-      <c r="V20" t="s">
-        <v>110</v>
-      </c>
-      <c r="W20" t="s">
-        <v>274</v>
-      </c>
-      <c r="X20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="AL20" t="s">
         <v>233</v>
       </c>
-      <c r="AA20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AM20" t="s">
         <v>234</v>
       </c>
-      <c r="AF20" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ20" t="s">
+      <c r="AN20" t="s">
         <v>235</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AQ20" t="s">
         <v>236</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AR20" t="s">
         <v>237</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AU20" t="s">
         <v>238</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AW20" t="s">
         <v>239</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AX20" t="s">
         <v>240</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AY20" t="s">
         <v>241</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AZ20" t="s">
         <v>242</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="BA20" t="s">
         <v>243</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="BB20" t="s">
         <v>244</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BC20" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK20" t="s">
         <v>245</v>
       </c>
-      <c r="BA20" t="s">
+      <c r="BL20" t="s">
         <v>246</v>
       </c>
-      <c r="BB20" t="s">
+      <c r="BO20" t="s">
         <v>247</v>
       </c>
-      <c r="BC20" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ20" t="s">
+      <c r="BP20" t="s">
         <v>132</v>
       </c>
-      <c r="BK20" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP20" t="s">
+      <c r="BQ20" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR20" t="s">
         <v>134</v>
       </c>
-      <c r="BQ20" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>136</v>
-      </c>
       <c r="BU20" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV20" t="s">
         <v>70</v>
-      </c>
-      <c r="BV20" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L21" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O21">
         <v>-999</v>
@@ -4756,159 +4756,159 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T21" t="s">
+        <v>229</v>
+      </c>
+      <c r="V21" t="s">
+        <v>109</v>
+      </c>
+      <c r="W21" t="s">
+        <v>230</v>
+      </c>
+      <c r="X21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>232</v>
       </c>
-      <c r="V21" t="s">
-        <v>110</v>
-      </c>
-      <c r="W21" t="s">
-        <v>274</v>
-      </c>
-      <c r="X21" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="AL21" t="s">
         <v>233</v>
       </c>
-      <c r="AA21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE21" t="s">
+      <c r="AM21" t="s">
         <v>234</v>
       </c>
-      <c r="AF21" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ21" t="s">
+      <c r="AN21" t="s">
         <v>235</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AQ21" t="s">
         <v>236</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AR21" t="s">
         <v>237</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AU21" t="s">
         <v>238</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AW21" t="s">
         <v>239</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AX21" t="s">
         <v>240</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AY21" t="s">
         <v>241</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AZ21" t="s">
         <v>242</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="BA21" t="s">
         <v>243</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="BB21" t="s">
         <v>244</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BC21" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK21" t="s">
         <v>245</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BL21" t="s">
         <v>246</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BO21" t="s">
         <v>247</v>
       </c>
-      <c r="BC21" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ21" t="s">
+      <c r="BP21" t="s">
         <v>132</v>
       </c>
-      <c r="BK21" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP21" t="s">
+      <c r="BQ21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR21" t="s">
         <v>134</v>
       </c>
-      <c r="BQ21" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>136</v>
-      </c>
       <c r="BU21" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV21" t="s">
         <v>70</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L22" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M22" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O22">
         <v>-999</v>
@@ -4917,159 +4917,159 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T22" t="s">
+        <v>229</v>
+      </c>
+      <c r="V22" t="s">
+        <v>109</v>
+      </c>
+      <c r="W22" t="s">
+        <v>230</v>
+      </c>
+      <c r="X22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>232</v>
       </c>
-      <c r="V22" t="s">
-        <v>110</v>
-      </c>
-      <c r="W22" t="s">
-        <v>274</v>
-      </c>
-      <c r="X22" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="AL22" t="s">
         <v>233</v>
       </c>
-      <c r="AA22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AM22" t="s">
         <v>234</v>
       </c>
-      <c r="AF22" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ22" t="s">
+      <c r="AN22" t="s">
         <v>235</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AQ22" t="s">
         <v>236</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AR22" t="s">
         <v>237</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AU22" t="s">
         <v>238</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AW22" t="s">
         <v>239</v>
       </c>
-      <c r="AR22" t="s">
+      <c r="AX22" t="s">
         <v>240</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AY22" t="s">
         <v>241</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AZ22" t="s">
         <v>242</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="BA22" t="s">
         <v>243</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="BB22" t="s">
         <v>244</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BC22" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK22" t="s">
         <v>245</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BL22" t="s">
         <v>246</v>
       </c>
-      <c r="BB22" t="s">
+      <c r="BO22" t="s">
         <v>247</v>
       </c>
-      <c r="BC22" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ22" t="s">
+      <c r="BP22" t="s">
         <v>132</v>
       </c>
-      <c r="BK22" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO22" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP22" t="s">
+      <c r="BQ22" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR22" t="s">
         <v>134</v>
       </c>
-      <c r="BQ22" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR22" t="s">
-        <v>136</v>
-      </c>
       <c r="BU22" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV22" t="s">
         <v>70</v>
-      </c>
-      <c r="BV22" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G23" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K23" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L23" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M23" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O23">
         <v>-999</v>
@@ -5078,709 +5078,709 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T23" t="s">
+        <v>229</v>
+      </c>
+      <c r="V23" t="s">
+        <v>109</v>
+      </c>
+      <c r="W23" t="s">
+        <v>230</v>
+      </c>
+      <c r="X23" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>232</v>
       </c>
-      <c r="V23" t="s">
-        <v>110</v>
-      </c>
-      <c r="W23" t="s">
-        <v>274</v>
-      </c>
-      <c r="X23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="AL23" t="s">
         <v>233</v>
       </c>
-      <c r="AA23" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AM23" t="s">
         <v>234</v>
       </c>
-      <c r="AF23" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ23" t="s">
+      <c r="AN23" t="s">
         <v>235</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AQ23" t="s">
         <v>236</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AR23" t="s">
         <v>237</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AU23" t="s">
         <v>238</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AW23" t="s">
         <v>239</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AX23" t="s">
         <v>240</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AY23" t="s">
         <v>241</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AZ23" t="s">
         <v>242</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="BA23" t="s">
         <v>243</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="BB23" t="s">
         <v>244</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BC23" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK23" t="s">
         <v>245</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BL23" t="s">
         <v>246</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BO23" t="s">
         <v>247</v>
       </c>
-      <c r="BC23" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ23" t="s">
+      <c r="BP23" t="s">
         <v>132</v>
       </c>
-      <c r="BK23" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP23" t="s">
+      <c r="BQ23" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR23" t="s">
         <v>134</v>
       </c>
-      <c r="BQ23" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>136</v>
-      </c>
       <c r="BU23" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV23" t="s">
         <v>70</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E24" s="1">
         <v>320619930325</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J24" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L24" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M24" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O24">
         <v>-999</v>
       </c>
       <c r="Q24" t="s">
+        <v>286</v>
+      </c>
+      <c r="R24" t="s">
+        <v>203</v>
+      </c>
+      <c r="T24" t="s">
+        <v>287</v>
+      </c>
+      <c r="V24" t="s">
+        <v>288</v>
+      </c>
+      <c r="W24" t="s">
+        <v>289</v>
+      </c>
+      <c r="X24" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD24" t="s">
         <v>290</v>
       </c>
-      <c r="R24" t="s">
-        <v>206</v>
-      </c>
-      <c r="T24" t="s">
+      <c r="AE24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL24" t="s">
         <v>291</v>
       </c>
-      <c r="V24" t="s">
+      <c r="AM24" t="s">
         <v>292</v>
       </c>
-      <c r="W24" t="s">
+      <c r="AN24" t="s">
         <v>293</v>
       </c>
-      <c r="X24" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="AQ24" t="s">
         <v>294</v>
       </c>
-      <c r="AE24" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL24" t="s">
+      <c r="AW24" t="s">
         <v>295</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AY24" t="s">
         <v>296</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="BA24" t="s">
         <v>297</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="BB24" t="s">
         <v>298</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="BC24" t="s">
         <v>299</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="BD24" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE24" t="s">
         <v>300</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BF24" t="s">
         <v>301</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BG24" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH24" t="s">
         <v>302</v>
       </c>
-      <c r="BC24" t="s">
+      <c r="BJ24" t="s">
         <v>303</v>
       </c>
-      <c r="BD24" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE24" t="s">
+      <c r="BK24" t="s">
         <v>304</v>
       </c>
-      <c r="BF24" t="s">
+      <c r="BL24" t="s">
         <v>305</v>
       </c>
-      <c r="BG24" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH24" t="s">
+      <c r="BP24" t="s">
         <v>306</v>
       </c>
-      <c r="BJ24" t="s">
+      <c r="BQ24" t="s">
         <v>307</v>
       </c>
-      <c r="BK24" t="s">
+      <c r="BR24" t="s">
         <v>308</v>
       </c>
-      <c r="BL24" t="s">
+      <c r="BU24" t="s">
         <v>309</v>
       </c>
-      <c r="BP24" t="s">
+      <c r="BV24" t="s">
         <v>310</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>311</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>312</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>313</v>
-      </c>
-      <c r="BV24" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E25" s="1">
         <v>320619961002</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
+        <v>320</v>
+      </c>
+      <c r="I25" t="s">
+        <v>321</v>
+      </c>
+      <c r="K25" t="s">
+        <v>378</v>
+      </c>
+      <c r="L25" t="s">
+        <v>387</v>
+      </c>
+      <c r="M25" t="s">
+        <v>384</v>
+      </c>
+      <c r="O25" t="s">
+        <v>322</v>
+      </c>
+      <c r="R25" t="s">
+        <v>105</v>
+      </c>
+      <c r="T25" t="s">
+        <v>351</v>
+      </c>
+      <c r="U25" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE25" t="s">
         <v>324</v>
       </c>
-      <c r="I25" t="s">
+      <c r="AF25" t="s">
         <v>325</v>
       </c>
-      <c r="K25" t="s">
-        <v>382</v>
-      </c>
-      <c r="L25" t="s">
-        <v>391</v>
-      </c>
-      <c r="M25" t="s">
-        <v>388</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="AJ25" t="s">
         <v>326</v>
       </c>
-      <c r="R25" t="s">
-        <v>106</v>
-      </c>
-      <c r="T25" t="s">
-        <v>355</v>
-      </c>
-      <c r="U25" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="AM25" t="s">
         <v>327</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AN25" t="s">
         <v>328</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AQ25" t="s">
         <v>329</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AS25" t="s">
         <v>330</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AY25" t="s">
         <v>331</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="BA25" t="s">
         <v>332</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="BB25" t="s">
         <v>333</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="BC25" t="s">
         <v>334</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="BD25" t="s">
         <v>335</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BE25" t="s">
         <v>336</v>
       </c>
-      <c r="BB25" t="s">
+      <c r="BF25" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG25" t="s">
         <v>337</v>
       </c>
-      <c r="BC25" t="s">
+      <c r="BH25" t="s">
         <v>338</v>
       </c>
-      <c r="BD25" t="s">
+      <c r="BJ25" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK25" t="s">
         <v>339</v>
       </c>
-      <c r="BE25" t="s">
+      <c r="BL25" t="s">
         <v>340</v>
       </c>
-      <c r="BF25" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG25" t="s">
+      <c r="BQ25" t="s">
         <v>341</v>
       </c>
-      <c r="BH25" t="s">
+      <c r="BR25" t="s">
         <v>342</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>343</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>344</v>
-      </c>
-      <c r="BQ25" t="s">
-        <v>345</v>
-      </c>
-      <c r="BR25" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E26" s="1">
         <v>320619970113</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
+        <v>320</v>
+      </c>
+      <c r="I26" t="s">
+        <v>321</v>
+      </c>
+      <c r="K26" t="s">
+        <v>379</v>
+      </c>
+      <c r="L26" t="s">
+        <v>387</v>
+      </c>
+      <c r="M26" t="s">
+        <v>384</v>
+      </c>
+      <c r="O26" t="s">
+        <v>322</v>
+      </c>
+      <c r="R26" t="s">
+        <v>105</v>
+      </c>
+      <c r="T26" t="s">
+        <v>351</v>
+      </c>
+      <c r="U26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE26" t="s">
         <v>324</v>
       </c>
-      <c r="I26" t="s">
+      <c r="AF26" t="s">
         <v>325</v>
       </c>
-      <c r="K26" t="s">
-        <v>383</v>
-      </c>
-      <c r="L26" t="s">
-        <v>391</v>
-      </c>
-      <c r="M26" t="s">
-        <v>388</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="AJ26" t="s">
         <v>326</v>
       </c>
-      <c r="R26" t="s">
-        <v>106</v>
-      </c>
-      <c r="T26" t="s">
-        <v>355</v>
-      </c>
-      <c r="U26" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="AM26" t="s">
         <v>327</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AN26" t="s">
         <v>328</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AQ26" t="s">
         <v>329</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AS26" t="s">
         <v>330</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AY26" t="s">
         <v>331</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="BA26" t="s">
         <v>332</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="BB26" t="s">
         <v>333</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="BC26" t="s">
         <v>334</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="BD26" t="s">
         <v>335</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BE26" t="s">
         <v>336</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BF26" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG26" t="s">
         <v>337</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BH26" t="s">
         <v>338</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BJ26" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK26" t="s">
         <v>339</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BL26" t="s">
         <v>340</v>
       </c>
-      <c r="BF26" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG26" t="s">
+      <c r="BQ26" t="s">
         <v>341</v>
       </c>
-      <c r="BH26" t="s">
+      <c r="BR26" t="s">
         <v>342</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>343</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>344</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>345</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>346</v>
-      </c>
       <c r="BW26" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E27" s="1">
         <v>320619930325</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I27" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J27" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K27" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M27" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O27">
         <v>-999</v>
       </c>
       <c r="Q27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="R27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T27" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="V27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="W27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="X27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Y27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AA27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC27" t="s">
         <v>112</v>
       </c>
-      <c r="AB27" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>114</v>
-      </c>
       <c r="AD27" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AE27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG27" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AH27" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E28" s="1">
         <v>320619961002</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G28" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I28" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K28" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L28" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M28" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O28" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="R28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T28" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U28" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AD28" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AE28" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG28" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AH28" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E29" s="1">
         <v>320619970113</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I29" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K29" t="s">
+        <v>381</v>
+      </c>
+      <c r="L29" t="s">
+        <v>386</v>
+      </c>
+      <c r="M29" t="s">
         <v>385</v>
       </c>
-      <c r="L29" t="s">
-        <v>390</v>
-      </c>
-      <c r="M29" t="s">
-        <v>389</v>
-      </c>
       <c r="O29" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="R29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T29" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U29" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AD29" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AE29" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AH29" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
